--- a/F_dataset/DUD-E/AKT2/AKT2_preprocessing/AKT2_train.xlsx
+++ b/F_dataset/DUD-E/AKT2/AKT2_preprocessing/AKT2_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V129"/>
+  <dimension ref="A1:V126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE80900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DACE0&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE81770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8040&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE815B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DAC00&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL593375</t>
+          <t>CHEMBL494088</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cc1occc1-c1nc(N)c(OC[C@@H](N)Cc2c[nH]c3ccccc23)cc1-c1cnc2[nH]nc(C)c2c1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCC3CCNC3)c21</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cc1occc1-c1nc(N)c(OC[C@@H](N)Cc2c[nH]c3ccccc23)cc1-c1cnc2[nH]nc(C)c2c1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCC3CCNC3)c21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,25 +779,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>493.57</v>
+        <v>411.47</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>144.66</v>
+        <v>137.14</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE83A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DAB20&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL536718</t>
+          <t>CHEMBL593375</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CN(C)c1ccc(O)c(C(=O)c2ccc(C(=O)N[C@@H]3CCCNC[C@H]3NC(=O)c3ccncc3)cc2)c1</t>
+          <t>Cc1occc1-c1nc(N)c(OC[C@@H](N)Cc2c[nH]c3ccccc23)cc1-c1cnc2[nH]nc(C)c2c1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CN(C)c1ccc(O)c(C(=O)c2ccc(C(=O)N[C@@H]3CCCNC[C@H]3NC(=O)c3ccncc3)cc2)c1</t>
+          <t>Cc1occc1-c1nc(N)c(OC[C@@H](N)Cc2c[nH]c3ccccc23)cc1-c1cnc2[nH]nc(C)c2c1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>501.59</v>
+        <v>493.57</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -859,13 +859,13 @@
         <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>123.66</v>
+        <v>144.66</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE80E40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA880&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL598448</t>
+          <t>CHEMBL536718</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NC1(Cc2cccc3ccccc23)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>CN(C)c1ccc(O)c(C(=O)c2ccc(C(=O)N[C@@H]3CCCNC[C@H]3NC(=O)c3ccncc3)cc2)c1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NC1(Cc2cccc3ccccc23)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>CN(C)c1ccc(O)c(C(=O)c2ccc(C(=O)N[C@@H]3CCCNC[C@H]3NC(=O)c3ccncc3)cc2)c1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>357.46</v>
+        <v>501.59</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>70.83</v>
+        <v>123.66</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE81230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA810&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL388184</t>
+          <t>CHEMBL598448</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCN3CCOCC3)c[nH]1)C(=O)N2</t>
+          <t>NC1(Cc2cccc3ccccc23)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCN3CCOCC3)c[nH]1)C(=O)N2</t>
+          <t>NC1(Cc2cccc3ccccc23)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,25 +983,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>424.46</v>
+        <v>357.46</v>
       </c>
       <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
         <v>5</v>
       </c>
-      <c r="I8" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4</v>
-      </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>141.58</v>
+        <v>70.83</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE812A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA7A0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE81460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA490&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE81D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA3B0&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL404554</t>
+          <t>CHEMBL448926</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5cc(-c6ccncc6)[nH]n5)CC4)cc3)nc2n1</t>
+          <t>c1ccc(-c2cc3cnc(-n4ccnc4)nc3nc2-c2ccc(CN3CCC(c4nnc(-c5ccccn5)[nH]4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5cc(-c6ccncc6)[nH]n5)CC4)cc3)nc2n1</t>
+          <t>c1ccc(-c2cc3cnc(-n4ccnc4)nc3nc2-c2ccc(CN3CCC(c4nnc(-c5ccccn5)[nH]4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>569.74</v>
+        <v>590.7</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
         <v>7</v>
       </c>
       <c r="K11" t="n">
+        <v>8</v>
+      </c>
+      <c r="L11" t="n">
         <v>7</v>
       </c>
-      <c r="L11" t="n">
-        <v>6</v>
-      </c>
       <c r="M11" t="n">
-        <v>83.48</v>
+        <v>114.19</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE81690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D85F0&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL448926</t>
+          <t>CHEMBL594755</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3cnc(-n4ccnc4)nc3nc2-c2ccc(CN3CCC(c4nnc(-c5ccccn5)[nH]4)CC3)cc2)cc1</t>
+          <t>Cc1occc1-c1nc(N)c(OC[C@@H](N)Cc2ccccc2)cc1-c1cnc2[nH]nc(C)c2n1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3cnc(-n4ccnc4)nc3nc2-c2ccc(CN3CCC(c4nnc(-c5ccccn5)[nH]4)CC3)cc2)cc1</t>
+          <t>Cc1occc1-c1nc(N)c(OC[C@@H](N)Cc2ccccc2)cc1-c1cnc2[nH]nc(C)c2n1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>590.7</v>
+        <v>455.52</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
         <v>8</v>
@@ -1267,13 +1267,13 @@
         <v>7</v>
       </c>
       <c r="K12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>114.19</v>
+        <v>141.76</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE809E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D93F0&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL594755</t>
+          <t>CHEMBL383541</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cc1occc1-c1nc(N)c(OC[C@@H](N)Cc2ccccc2)cc1-c1cnc2[nH]nc(C)c2n1</t>
+          <t>N[C@H](COc1cncc(/C=C/c2ccncc2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cc1occc1-c1nc(N)c(OC[C@@H](N)Cc2ccccc2)cc1-c1cnc2[nH]nc(C)c2n1</t>
+          <t>N[C@H](COc1cncc(/C=C/c2ccncc2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,25 +1323,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>455.52</v>
+        <v>370.46</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
         <v>7</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>141.76</v>
+        <v>76.81999999999999</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE83A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D94D0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL383541</t>
+          <t>CHEMBL536485</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(/C=C/c2ccncc2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>CC1(C)CCCNC1c1ccc(O)c(C(=O)c2ccc(C(=O)N[C@@H]3CCCNC[C@H]3NC(=O)c3ccncc3)cc2)c1F</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(/C=C/c2ccncc2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>CC1(C)CCCNC1c1ccc(O)c(C(=O)c2ccc(C(=O)N[C@@H]3CCCNC[C@H]3NC(=O)c3ccncc3)cc2)c1F</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,25 +1391,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>370.46</v>
+        <v>587.7</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
         <v>7</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>76.81999999999999</v>
+        <v>132.45</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE819A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9540&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL536485</t>
+          <t>CHEMBL369506</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CC1(C)CCCNC1c1ccc(O)c(C(=O)c2ccc(C(=O)N[C@@H]3CCCNC[C@H]3NC(=O)c3ccncc3)cc2)c1F</t>
+          <t>CC(C)CC1=NC(c2ccccc2)=C(c2ccc(CN3CCC(n4c(O)nc5ccccc54)CC3)cc2)NC1O</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CC1(C)CCCNC1c1ccc(O)c(C(=O)c2ccc(C(=O)N[C@@H]3CCCNC[C@H]3NC(=O)c3ccncc3)cc2)c1F</t>
+          <t>CC(C)CC1=NC(c2ccccc2)=C(c2ccc(CN3CCC(n4c(O)nc5ccccc54)CC3)cc2)NC1O</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>587.7</v>
+        <v>535.6900000000001</v>
       </c>
       <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
         <v>5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7</v>
       </c>
       <c r="J15" t="n">
         <v>7</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>132.45</v>
+        <v>85.91</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE82260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9930&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL369506</t>
+          <t>CHEMBL227605</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CC(C)CC1=NC(c2ccccc2)=C(c2ccc(CN3CCC(n4c(O)nc5ccccc54)CC3)cc2)NC1O</t>
+          <t>NC(Cc1ccccc1)c1ccc(-c2ncnc3[nH]cnc23)cc1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CC(C)CC1=NC(c2ccccc2)=C(c2ccc(CN3CCC(n4c(O)nc5ccccc54)CC3)cc2)NC1O</t>
+          <t>NC(Cc1ccccc1)c1ccc(-c2ncnc3[nH]cnc23)cc1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>535.6900000000001</v>
+        <v>315.38</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
         <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>85.91</v>
+        <v>80.48</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE82570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D95B0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL227605</t>
+          <t>CHEMBL605326</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NC(Cc1ccccc1)c1ccc(-c2ncnc3[nH]cnc23)cc1</t>
+          <t>NC1(C(=O)N2CCCC2c2ccccc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NC(Cc1ccccc1)c1ccc(-c2ncnc3[nH]cnc23)cc1</t>
+          <t>NC1(C(=O)N2CCCC2c2ccccc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>315.38</v>
+        <v>390.49</v>
       </c>
       <c r="H17" t="n">
         <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>80.48</v>
+        <v>91.14</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE825E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9690&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL605326</t>
+          <t>CHEMBL1099297</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,44 +1644,44 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NC1(C(=O)N2CCCC2c2ccccc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(O[C@@H](CCN)c3ccccc3)cc21</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NC1(C(=O)N2CCCC2c2ccccc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(O[C@@H](CCN)c3ccccc3)cc21</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>390.49</v>
+        <v>461.53</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>91.14</v>
+        <v>151.13</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE826C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DAB90&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL1099297</t>
+          <t>CHEMBL228652</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(O[C@@H](CCN)c3ccccc3)cc21</t>
+          <t>NCc1cccc(-c2c[nH]c(/C=C3\C(=O)Nc4ccc(NC(N)=O)cc43)c2)c1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(O[C@@H](CCN)c3ccccc3)cc21</t>
+          <t>NCc1cccc(-c2c[nH]c(/C=C3\C(=O)Nc4ccc(NC(N)=O)cc43)c2)c1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>461.53</v>
+        <v>373.42</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>151.13</v>
+        <v>126.03</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE82C70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9850&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL228652</t>
+          <t>CHEMBL425650</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NCc1cccc(-c2c[nH]c(/C=C3\C(=O)Nc4ccc(NC(N)=O)cc43)c2)c1</t>
+          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(-c3cccc(C(=O)NCCN4CCCCC4)c3)c[nH]1)C(=O)N2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NCc1cccc(-c2c[nH]c(/C=C3\C(=O)Nc4ccc(NC(N)=O)cc43)c2)c1</t>
+          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(-c3cccc(C(=O)NCCN4CCCCC4)c3)c[nH]1)C(=O)N2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,25 +1799,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>373.42</v>
+        <v>498.59</v>
       </c>
       <c r="H20" t="n">
         <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
         <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>126.03</v>
+        <v>132.35</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE82F10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D99A0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL425650</t>
+          <t>CHEMBL523859</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(-c3cccc(C(=O)NCCN4CCCCC4)c3)c[nH]1)C(=O)N2</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCC[C@@H](N)Cc3ccccc3)c21</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(-c3cccc(C(=O)NCCN4CCCCC4)c3)c[nH]1)C(=O)N2</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCC[C@@H](N)Cc3ccccc3)c21</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,25 +1867,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>498.59</v>
+        <v>475.55</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>132.35</v>
+        <v>151.13</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE83140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9700&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL523859</t>
+          <t>CHEMBL260000</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCC[C@@H](N)Cc3ccccc3)c21</t>
+          <t>NCC1(Cc2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCC[C@@H](N)Cc3ccccc3)c21</t>
+          <t>NCC1(Cc2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,25 +1935,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>475.55</v>
+        <v>355.87</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>151.13</v>
+        <v>70.83</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE83300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9A10&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL260000</t>
+          <t>CHEMBL598842</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NCC1(Cc2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>NC1(C(=O)NCc2ccc(Cl)cc2)CCN(c2ncnc3[nH]c(=O)[nH]c23)CC1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NCC1(Cc2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>NC1(C(=O)NCc2ccc(Cl)cc2)CCN(c2ncnc3[nH]c(=O)[nH]c23)CC1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2003,13 +2003,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>355.87</v>
+        <v>401.86</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
         <v>4</v>
@@ -2021,7 +2021,7 @@
         <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>70.83</v>
+        <v>132.79</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE83450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DAA40&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL598842</t>
+          <t>CHEMBL228812</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NC1(C(=O)NCc2ccc(Cl)cc2)CCN(c2ncnc3[nH]c(=O)[nH]c23)CC1</t>
+          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)CN)c[nH]1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NC1(C(=O)NCc2ccc(Cl)cc2)CCN(c2ncnc3[nH]c(=O)[nH]c23)CC1</t>
+          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)CN)c[nH]1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2071,25 +2071,25 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>401.86</v>
+        <v>368.4</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>132.79</v>
+        <v>155.13</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE83530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9770&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL228812</t>
+          <t>CHEMBL494060</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)CN)c[nH]1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCCCNCCc3ccc(OC)cc3)c21</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)CN)c[nH]1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCCCNCCc3ccc(OC)cc3)c21</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>368.4</v>
+        <v>519.61</v>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>155.13</v>
+        <v>146.37</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE83680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9A80&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL494060</t>
+          <t>CHEMBL259998</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCCCNCCc3ccc(OC)cc3)c21</t>
+          <t>NC1(c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCCCNCCc3ccc(OC)cc3)c21</t>
+          <t>NC1(c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,25 +2207,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>519.61</v>
+        <v>327.82</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
         <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>146.37</v>
+        <v>70.83</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE83840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9CB0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL259998</t>
+          <t>CHEMBL597793</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NC1(c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>NC1(COCc2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NC1(c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>NC1(COCc2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,16 +2275,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>327.82</v>
+        <v>371.87</v>
       </c>
       <c r="H27" t="n">
         <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
         <v>4</v>
@@ -2293,7 +2293,7 @@
         <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>70.83</v>
+        <v>80.06</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE83C30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9D20&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL597793</t>
+          <t>CHEMBL226712</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NC1(COCc2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>NC(c1ccc(Cl)cc1)c1ccc(-c2ncnc3[nH]cnc23)cc1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NC1(COCc2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>NC(c1ccc(Cl)cc1)c1ccc(-c2ncnc3[nH]cnc23)cc1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2343,25 +2343,25 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>371.87</v>
+        <v>335.8</v>
       </c>
       <c r="H28" t="n">
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
         <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>80.06</v>
+        <v>80.48</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE83D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9E70&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL226712</t>
+          <t>CHEMBL593490</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NC(c1ccc(Cl)cc1)c1ccc(-c2ncnc3[nH]cnc23)cc1</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NC(c1ccc(Cl)cc1)c1ccc(-c2ncnc3[nH]cnc23)cc1</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2411,25 +2411,25 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>335.8</v>
+        <v>463.54</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
-        <v>80.48</v>
+        <v>105.75</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE83D80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA0A0&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL593490</t>
+          <t>CHEMBL599448</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)cc12</t>
+          <t>NC1(C(=O)NCc2ccc(Cl)cc2)CCN(c2ccnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)cc12</t>
+          <t>NC1(C(=O)NCc2ccc(Cl)cc2)CCN(c2ccnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2479,25 +2479,25 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>463.54</v>
+        <v>383.88</v>
       </c>
       <c r="H30" t="n">
         <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
-        <v>105.75</v>
+        <v>87.04000000000001</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE83DF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA180&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL599448</t>
+          <t>CHEMBL598013</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NC1(C(=O)NCc2ccc(Cl)cc2)CCN(c2ccnc3[nH]ccc23)CC1</t>
+          <t>NC1(Cc2ccc(Cl)cc2)CCN(c2ccnc3[nH]ncc23)CC1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NC1(C(=O)NCc2ccc(Cl)cc2)CCN(c2ccnc3[nH]ccc23)CC1</t>
+          <t>NC1(Cc2ccc(Cl)cc2)CCN(c2ccnc3[nH]ncc23)CC1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2547,16 +2547,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>383.88</v>
+        <v>341.85</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
         <v>4</v>
@@ -2565,7 +2565,7 @@
         <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>87.04000000000001</v>
+        <v>70.83</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE80270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA340&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL598013</t>
+          <t>CHEMBL260463</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NC1(Cc2ccc(Cl)cc2)CCN(c2ccnc3[nH]ncc23)CC1</t>
+          <t>NCC1(c2ccc(Cl)cc2)CCN(c2ccnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NC1(Cc2ccc(Cl)cc2)CCN(c2ccnc3[nH]ncc23)CC1</t>
+          <t>NCC1(c2ccc(Cl)cc2)CCN(c2ccnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2615,13 +2615,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>341.85</v>
+        <v>340.86</v>
       </c>
       <c r="H32" t="n">
         <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
         <v>3</v>
@@ -2633,7 +2633,7 @@
         <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>70.83</v>
+        <v>57.94</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE80CF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA500&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL260463</t>
+          <t>CHEMBL446134</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NCC1(c2ccc(Cl)cc2)CCN(c2ccnc3[nH]ccc23)CC1</t>
+          <t>O=C1NCCc2nc(-c3ccc(CN4CCC(c5nnc(-c6ccccn6)[nH]5)CC4)cc3)c(-c3ccccc3)cc21</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NCC1(c2ccc(Cl)cc2)CCN(c2ccnc3[nH]ccc23)CC1</t>
+          <t>O=C1NCCc2nc(-c3ccc(CN4CCC(c5nnc(-c6ccccn6)[nH]5)CC4)cc3)c(-c3ccccc3)cc21</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2683,25 +2683,25 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>340.86</v>
+        <v>541.66</v>
       </c>
       <c r="H33" t="n">
         <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>57.94</v>
+        <v>99.69</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE80D60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA5E0&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL446134</t>
+          <t>CHEMBL498051</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>O=C1NCCc2nc(-c3ccc(CN4CCC(c5nnc(-c6ccccn6)[nH]5)CC4)cc3)c(-c3ccccc3)cc21</t>
+          <t>NC[C@H](Cc1ccncc1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>O=C1NCCc2nc(-c3ccc(CN4CCC(c5nnc(-c6ccccn6)[nH]5)CC4)cc3)c(-c3ccccc3)cc21</t>
+          <t>NC[C@H](Cc1ccncc1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2751,25 +2751,25 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>541.66</v>
+        <v>456.37</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
         <v>6</v>
       </c>
       <c r="K34" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>99.69</v>
+        <v>96.69</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE81700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA8F0&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL498051</t>
+          <t>CHEMBL603244</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NC[C@H](Cc1ccncc1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
+          <t>NC1(CNC(=O)c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NC[C@H](Cc1ccncc1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
+          <t>NC1(CNC(=O)c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2819,25 +2819,25 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>456.37</v>
+        <v>384.87</v>
       </c>
       <c r="H35" t="n">
         <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
         <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>96.69</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE80DD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DAC70&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL253693</t>
+          <t>CHEMBL270847</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(n5ncc6c(N)ncnc65)CC4)cc3)nc2n1</t>
+          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3ncc(-c4nnn[nH]4)cc3-c3ccccc3)cc2)CC1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(n5ncc6c(N)ncnc65)CC4)cc3)nc2n1</t>
+          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3ncc(-c4nnn[nH]4)cc3-c3ccccc3)cc2)CC1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>559.7</v>
+        <v>528.62</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J36" t="n">
         <v>6</v>
@@ -2905,7 +2905,7 @@
         <v>6</v>
       </c>
       <c r="M36" t="n">
-        <v>111.53</v>
+        <v>108.38</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE817E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DAE30&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHEMBL603244</t>
+          <t>CHEMBL182101</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NC1(CNC(=O)c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>Cn1nnnc1-c1cnc(-c2ccc(CN3CCC(n4c(O)nc5ccccc54)CC3)cc2)c(-c2ccccc2)c1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NC1(CNC(=O)c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>Cn1nnnc1-c1cnc(-c2ccc(CN3CCC(n4c(O)nc5ccccc54)CC3)cc2)c(-c2ccccc2)c1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2955,25 +2955,25 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>384.87</v>
+        <v>542.65</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K37" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L37" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M37" t="n">
-        <v>99.93000000000001</v>
+        <v>97.78</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE81C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC5F0&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMBL270847</t>
+          <t>CHEMBL253457</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3ncc(-c4nnn[nH]4)cc3-c3ccccc3)cc2)CC1</t>
+          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(c5nc6ccc(F)cc6[nH]5)CC4)cc3)c(-c3ccccc3)cc12</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3ncc(-c4nnn[nH]4)cc3-c3ccccc3)cc2)CC1</t>
+          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(c5nc6ccc(F)cc6[nH]5)CC4)cc3)c(-c3ccccc3)cc12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3023,7 +3023,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>528.62</v>
+        <v>529.62</v>
       </c>
       <c r="H38" t="n">
         <v>2</v>
@@ -3032,7 +3032,7 @@
         <v>6</v>
       </c>
       <c r="J38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K38" t="n">
         <v>7</v>
@@ -3041,7 +3041,7 @@
         <v>6</v>
       </c>
       <c r="M38" t="n">
-        <v>108.38</v>
+        <v>96.61</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE81310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC120&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL182101</t>
+          <t>CHEMBL402579</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Cn1nnnc1-c1cnc(-c2ccc(CN3CCC(n4c(O)nc5ccccc54)CC3)cc2)c(-c2ccccc2)c1</t>
+          <t>Cc1nc2ccccc2n1C1CCN(Cc2ccc(-c3nc4ncnc(N)c4cc3-c3ccccc3)cc2)CC1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Cn1nnnc1-c1cnc(-c2ccc(CN3CCC(n4c(O)nc5ccccc54)CC3)cc2)c(-c2ccccc2)c1</t>
+          <t>Cc1nc2ccccc2n1C1CCN(Cc2ccc(-c3nc4ncnc(N)c4cc3-c3ccccc3)cc2)CC1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3091,16 +3091,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>542.65</v>
+        <v>525.66</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K39" t="n">
         <v>7</v>
@@ -3109,7 +3109,7 @@
         <v>6</v>
       </c>
       <c r="M39" t="n">
-        <v>97.78</v>
+        <v>85.75</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE811C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC430&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL253457</t>
+          <t>CHEMBL178468</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(c5nc6ccc(F)cc6[nH]5)CC4)cc3)c(-c3ccccc3)cc12</t>
+          <t>CC(C)Cc1nc(-c2ccccc2)c(-c2ccc(CN3CCC(n4c(O)nc5ccccc54)CC3)cc2)nc1O</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(c5nc6ccc(F)cc6[nH]5)CC4)cc3)c(-c3ccccc3)cc12</t>
+          <t>CC(C)Cc1nc(-c2ccccc2)c(-c2ccc(CN3CCC(n4c(O)nc5ccccc54)CC3)cc2)nc1O</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>529.62</v>
+        <v>533.6799999999999</v>
       </c>
       <c r="H40" t="n">
         <v>2</v>
@@ -3168,16 +3168,16 @@
         <v>6</v>
       </c>
       <c r="J40" t="n">
+        <v>7</v>
+      </c>
+      <c r="K40" t="n">
+        <v>6</v>
+      </c>
+      <c r="L40" t="n">
         <v>5</v>
       </c>
-      <c r="K40" t="n">
-        <v>7</v>
-      </c>
-      <c r="L40" t="n">
-        <v>6</v>
-      </c>
       <c r="M40" t="n">
-        <v>96.61</v>
+        <v>87.3</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE81CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC510&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL402579</t>
+          <t>CHEMBL252261</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cc1nc2ccccc2n1C1CCN(Cc2ccc(-c3nc4ncnc(N)c4cc3-c3ccccc3)cc2)CC1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4n[nH]c(-c5ccccc5)n4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Cc1nc2ccccc2n1C1CCN(Cc2ccc(-c3nc4ncnc(N)c4cc3-c3ccccc3)cc2)CC1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4n[nH]c(-c5ccccc5)n4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3227,25 +3227,25 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>525.66</v>
+        <v>529.67</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
+        <v>7</v>
+      </c>
+      <c r="J41" t="n">
+        <v>9</v>
+      </c>
+      <c r="K41" t="n">
         <v>6</v>
-      </c>
-      <c r="J41" t="n">
-        <v>5</v>
-      </c>
-      <c r="K41" t="n">
-        <v>7</v>
       </c>
       <c r="L41" t="n">
         <v>6</v>
       </c>
       <c r="M41" t="n">
-        <v>85.75</v>
+        <v>92.27</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE81F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC7B0&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL178468</t>
+          <t>CHEMBL401622</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3276,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CC(C)Cc1nc(-c2ccccc2)c(-c2ccc(CN3CCC(n4c(O)nc5ccccc54)CC3)cc2)nc1O</t>
+          <t>Cn1nc(N)c2cc(-c3ccccc3)c(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)nc21</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>CC(C)Cc1nc(-c2ccccc2)c(-c2ccc(CN3CCC(n4c(O)nc5ccccc54)CC3)cc2)nc1O</t>
+          <t>Cn1nc(N)c2cc(-c3ccccc3)c(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)nc21</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3295,25 +3295,25 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>533.6799999999999</v>
+        <v>529.65</v>
       </c>
       <c r="H42" t="n">
         <v>2</v>
       </c>
       <c r="I42" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>7</v>
+      </c>
+      <c r="L42" t="n">
         <v>6</v>
       </c>
-      <c r="J42" t="n">
-        <v>7</v>
-      </c>
-      <c r="K42" t="n">
-        <v>6</v>
-      </c>
-      <c r="L42" t="n">
-        <v>5</v>
-      </c>
       <c r="M42" t="n">
-        <v>87.3</v>
+        <v>97.76000000000001</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -3324,7 +3324,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE81FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC4A0&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHEMBL252261</t>
+          <t>CHEMBL255360</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4n[nH]c(-c5ccccc5)n4)cc3)nc2n1</t>
+          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(n5cnc6c(N)ncnc65)CC4)cc3)c(-c3ccccc3)cc12</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4n[nH]c(-c5ccccc5)n4)cc3)nc2n1</t>
+          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(n5cnc6c(N)ncnc65)CC4)cc3)c(-c3ccccc3)cc12</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3363,25 +3363,25 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>529.67</v>
+        <v>528.62</v>
       </c>
       <c r="H43" t="n">
         <v>2</v>
       </c>
       <c r="I43" t="n">
+        <v>9</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5</v>
+      </c>
+      <c r="K43" t="n">
         <v>7</v>
-      </c>
-      <c r="J43" t="n">
-        <v>9</v>
-      </c>
-      <c r="K43" t="n">
-        <v>6</v>
       </c>
       <c r="L43" t="n">
         <v>6</v>
       </c>
       <c r="M43" t="n">
-        <v>92.27</v>
+        <v>137.55</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -3392,7 +3392,7 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE82030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC660&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3404,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CHEMBL401622</t>
+          <t>CHEMBL407733</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3412,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cn1nc(N)c2cc(-c3ccccc3)c(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)nc21</t>
+          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4cc(-c5cccnc5)[nH]n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Cn1nc(N)c2cc(-c3ccccc3)c(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)nc21</t>
+          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4cc(-c5cccnc5)[nH]n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>529.65</v>
+        <v>522.66</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>5</v>
       </c>
       <c r="J44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K44" t="n">
         <v>7</v>
@@ -3449,7 +3449,7 @@
         <v>6</v>
       </c>
       <c r="M44" t="n">
-        <v>97.76000000000001</v>
+        <v>70.59</v>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
@@ -3460,7 +3460,7 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE820A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC6D0&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3472,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHEMBL255360</t>
+          <t>CHEMBL252457</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3480,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(n5cnc6c(N)ncnc65)CC4)cc3)c(-c3ccccc3)cc12</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(C(N)=O)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(n5cnc6c(N)ncnc65)CC4)cc3)c(-c3ccccc3)cc12</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(C(N)=O)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3499,25 +3499,25 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>528.62</v>
+        <v>469.61</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
+        <v>6</v>
+      </c>
+      <c r="K45" t="n">
         <v>5</v>
       </c>
-      <c r="K45" t="n">
-        <v>7</v>
-      </c>
       <c r="L45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>137.55</v>
+        <v>85</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -3528,7 +3528,7 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE82110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC740&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3540,7 +3540,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHEMBL252457</t>
+          <t>CHEMBL488428</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3548,12 +3548,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(C(N)=O)CC4)cc3)nc2n1</t>
+          <t>O=c1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nc6cc[nH]c(=O)c6cc5-c5ccccc5)cc4)CC3)[nH]2)c[nH]1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(C(N)=O)CC4)cc3)nc2n1</t>
+          <t>O=c1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nc6cc[nH]c(=O)c6cc5-c5ccccc5)cc4)CC3)[nH]2)c[nH]1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3563,14 +3563,14 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>469.61</v>
+        <v>555.64</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
         <v>6</v>
@@ -3579,13 +3579,13 @@
         <v>6</v>
       </c>
       <c r="K46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M46" t="n">
-        <v>85</v>
+        <v>123.42</v>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
@@ -3596,7 +3596,7 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE822D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC820&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3608,7 +3608,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL494089</t>
+          <t>CHEMBL228749</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3616,12 +3616,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC[C@H]3CCCNC3)c21</t>
+          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCc3cnc[nH]3)c[nH]1)C(=O)N2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC[C@H]3CCCNC3)c21</t>
+          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCc3cnc[nH]3)c[nH]1)C(=O)N2</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3635,16 +3635,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>425.49</v>
+        <v>405.42</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I47" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K47" t="n">
         <v>4</v>
@@ -3653,7 +3653,7 @@
         <v>3</v>
       </c>
       <c r="M47" t="n">
-        <v>137.14</v>
+        <v>157.79</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -3664,7 +3664,7 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE82340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC9E0&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3676,7 +3676,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHEMBL488428</t>
+          <t>CHEMBL271091</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3684,12 +3684,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>O=c1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nc6cc[nH]c(=O)c6cc5-c5ccccc5)cc4)CC3)[nH]2)c[nH]1</t>
+          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4ccc(-c5nn[nH]n5)cc4nc3-c3ccccc3)cc2)CC1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>O=c1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nc6cc[nH]c(=O)c6cc5-c5ccccc5)cc4)CC3)[nH]2)c[nH]1</t>
+          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4ccc(-c5nn[nH]n5)cc4nc3-c3ccccc3)cc2)CC1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3703,25 +3703,25 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>555.64</v>
+        <v>579.67</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J48" t="n">
         <v>6</v>
       </c>
       <c r="K48" t="n">
+        <v>8</v>
+      </c>
+      <c r="L48" t="n">
         <v>7</v>
       </c>
-      <c r="L48" t="n">
-        <v>6</v>
-      </c>
       <c r="M48" t="n">
-        <v>123.42</v>
+        <v>121.27</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -3732,7 +3732,7 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE82420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC040&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3744,7 +3744,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CHEMBL228749</t>
+          <t>CHEMBL259968</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3752,12 +3752,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCc3cnc[nH]3)c[nH]1)C(=O)N2</t>
+          <t>c1ccc(-c2cc3ccncc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCc3cnc[nH]3)c[nH]1)C(=O)N2</t>
+          <t>c1ccc(-c2cc3ccncc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3771,25 +3771,25 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>405.42</v>
+        <v>523.64</v>
       </c>
       <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
         <v>6</v>
-      </c>
-      <c r="I49" t="n">
-        <v>4</v>
       </c>
       <c r="J49" t="n">
         <v>6</v>
       </c>
       <c r="K49" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M49" t="n">
-        <v>157.79</v>
+        <v>83.48</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -3800,7 +3800,7 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE82490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC0B0&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -3812,7 +3812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CHEMBL271091</t>
+          <t>CHEMBL2325737</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3820,12 +3820,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4ccc(-c5nn[nH]n5)cc4nc3-c3ccccc3)cc2)CC1</t>
+          <t>NC1(C(=O)NC(CO)c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4ccc(-c5nn[nH]n5)cc4nc3-c3ccccc3)cc2)CC1</t>
+          <t>NC1(C(=O)NC(CO)c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3835,40 +3835,66 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>579.67</v>
+        <v>414.9</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K50" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L50" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
-        <v>121.27</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
+        <v>120.16</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>IC50</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>nM</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>46</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>CHEMBL2330885</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Inhibition of recombinant Akt2 (unknown origin) using 5-FAM-labeled peptide as substrate after 1 hr by caliper off-chip incubation mobility shift assay</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE82500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC190&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -3880,7 +3906,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CHEMBL259968</t>
+          <t>CHEMBL493911</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3888,12 +3914,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3ccncc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
+          <t>CCn1c(-c2nonc2N)nc2cncc(OC3CCNCC3)c21</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3ccncc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
+          <t>CCn1c(-c2nonc2N)nc2cncc(OC3CCNCC3)c21</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3903,40 +3929,66 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>523.64</v>
+        <v>329.36</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J51" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K51" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M51" t="n">
-        <v>83.48</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
+        <v>116.91</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>IC50</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>nM</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>CHEMBL1028093</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Inhibition of human AKT2</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE827A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC200&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -3948,52 +4000,52 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CHEMBL259982</t>
+          <t>C19321647</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4cc(-c5ccccn5)[nH]n4)CC3)cc2)cc1</t>
+          <t>C[C@@H]1[C@@]2(O)C(=[N+]([O-])[C@@]1(C)[NH3+])CCc1nonc12</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4cc(-c5ccccn5)[nH]n4)CC3)cc2)cc1</t>
+          <t>C[C@@H]1[C@@]2(O)C(=[N+]([O-])[C@@]1(C)[NH3+])CCc1nonc12</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G2 inactive</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>522.66</v>
+        <v>239.25</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
         <v>5</v>
       </c>
       <c r="J52" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L52" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
-        <v>70.59</v>
+        <v>112.86</v>
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -4004,7 +4056,7 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE82810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FF060&gt;</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -4016,89 +4068,63 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CHEMBL2325737</t>
+          <t>C50224613</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NC1(C(=O)NC(CO)c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>[NH3+]Cc1cn(C[C@@H]2CNC(=O)O2)nn1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NC1(C(=O)NC(CO)c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>[NH3+]Cc1cn(C[C@@H]2CNC(=O)O2)nn1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G2 inactive</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>414.9</v>
+        <v>198.21</v>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>120.16</v>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q53" t="n">
-        <v>46</v>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>CHEMBL2330885</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant Akt2 (unknown origin) using 5-FAM-labeled peptide as substrate after 1 hr by caliper off-chip incubation mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>96.68000000000001</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE828F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC580&gt;</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -4110,89 +4136,63 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CHEMBL493911</t>
+          <t>C26421692</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2cncc(OC3CCNCC3)c21</t>
+          <t>[NH3+]CCn1ncc2c(=O)n(Cc3ccc(Br)cc3)cnc21</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2cncc(OC3CCNCC3)c21</t>
+          <t>[NH3+]CCn1ncc2c(=O)n(Cc3ccc(Br)cc3)cnc21</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G2 inactive</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>329.36</v>
+        <v>349.21</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
         <v>4</v>
       </c>
       <c r="K54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L54" t="n">
         <v>3</v>
       </c>
       <c r="M54" t="n">
-        <v>116.91</v>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>CHEMBL1028093</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>Inhibition of human AKT2</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>80.34999999999999</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE82B20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FCB30&gt;</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -4204,7 +4204,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>C19321647</t>
+          <t>C44282538</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4212,12 +4212,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>C[C@@H]1[C@@]2(O)C(=[N+]([O-])[C@@]1(C)[NH3+])CCc1nonc12</t>
+          <t>Cc1c(Br)c(O)c(CCC[NH3+])c(C)c1[N+](=O)[O-]</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>C[C@@H]1[C@@]2(O)C(=[N+]([O-])[C@@]1(C)[NH3+])CCc1nonc12</t>
+          <t>Cc1c(Br)c(O)c(CCC[NH3+])c(C)c1[N+](=O)[O-]</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4231,25 +4231,25 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>239.25</v>
+        <v>304.16</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>112.86</v>
+        <v>91.01000000000001</v>
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
@@ -4260,7 +4260,7 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE5A570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FCBA0&gt;</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -4272,7 +4272,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>C50224613</t>
+          <t>C13651282</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4280,12 +4280,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[NH3+]Cc1cn(C[C@@H]2CNC(=O)O2)nn1</t>
+          <t>CCN(CC)c1ccc(N2CCN(C(=O)[C@]3(C)CCc4c(C)c(O)c(C)c(C)c4O3)CC2)[nH+]c1N(CC)CC</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[NH3+]Cc1cn(C[C@@H]2CNC(=O)O2)nn1</t>
+          <t>CCN(CC)c1ccc(N2CCN(C(=O)[C@]3(C)CCc4c(C)c(O)c(C)c(C)c4O3)CC2)[nH+]c1N(CC)CC</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4299,25 +4299,25 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>198.21</v>
+        <v>538.76</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M56" t="n">
-        <v>96.68000000000001</v>
+        <v>73.63</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -4328,7 +4328,7 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE5A9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD310&gt;</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -4340,7 +4340,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>C26421692</t>
+          <t>C39528088</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4348,12 +4348,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[NH3+]CCn1ncc2c(=O)n(Cc3ccc(Br)cc3)cnc21</t>
+          <t>O=S(=O)(Oc1ccccc1)[C@H]1CN(c2ccc(Cc3ccccc3)cc2Cc2ccccc2)CC[NH2+]1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>[NH3+]CCn1ncc2c(=O)n(Cc3ccc(Br)cc3)cnc21</t>
+          <t>O=S(=O)(Oc1ccccc1)[C@H]1CN(c2ccc(Cc3ccccc3)cc2Cc2ccccc2)CC[NH2+]1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4367,25 +4367,25 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>349.21</v>
+        <v>499.66</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J57" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>80.34999999999999</v>
+        <v>63.22</v>
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -4396,7 +4396,7 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE59690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD1C0&gt;</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -4408,7 +4408,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>C44282538</t>
+          <t>C32106593</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -4416,12 +4416,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cc1c(Br)c(O)c(CCC[NH3+])c(C)c1[N+](=O)[O-]</t>
+          <t>CC1(C)CC(N2CN(C3CC(C)(C)N(O)C(C)(C)C3)C[NH+](C3CC(C)(C)N(O)C(C)(C)C3)C2)CC(C)(C)N1O</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Cc1c(Br)c(O)c(CCC[NH3+])c(C)c1[N+](=O)[O-]</t>
+          <t>CC1(C)CC(N2CN(C3CC(C)(C)N(O)C(C)(C)C3)C[NH+](C3CC(C)(C)N(O)C(C)(C)C3)C2)CC(C)(C)N1O</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4435,25 +4435,25 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>304.16</v>
+        <v>553.86</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>91.01000000000001</v>
+        <v>81.33</v>
       </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
@@ -4464,7 +4464,7 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE80AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FDFC0&gt;</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -4476,7 +4476,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>C13651282</t>
+          <t>C63280025</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -4484,12 +4484,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CCN(CC)c1ccc(N2CCN(C(=O)[C@]3(C)CCc4c(C)c(O)c(C)c(C)c4O3)CC2)[nH+]c1N(CC)CC</t>
+          <t>O=C(CNC(=O)[C@@H]1C=c2ccccc2=[NH+]1)N[C@H]1Nc2ccccc2S1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>CCN(CC)c1ccc(N2CCN(C(=O)[C@]3(C)CCc4c(C)c(O)c(C)c(C)c4O3)CC2)[nH+]c1N(CC)CC</t>
+          <t>O=C(CNC(=O)[C@@H]1C=c2ccccc2=[NH+]1)N[C@H]1Nc2ccccc2S1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4503,16 +4503,16 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>538.76</v>
+        <v>353.43</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J59" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K59" t="n">
         <v>4</v>
@@ -4521,7 +4521,7 @@
         <v>2</v>
       </c>
       <c r="M59" t="n">
-        <v>73.63</v>
+        <v>84.2</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -4532,7 +4532,7 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE813F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FECE0&gt;</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -4544,7 +4544,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>C39528088</t>
+          <t>C67126209</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -4552,12 +4552,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>O=S(=O)(Oc1ccccc1)[C@H]1CN(c2ccc(Cc3ccccc3)cc2Cc2ccccc2)CC[NH2+]1</t>
+          <t>NC(=O)C1CCN(C(=O)CCCC[C@H]2SC[C@H]3NC(=O)N[C@H]32)CC1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>O=S(=O)(Oc1ccccc1)[C@H]1CN(c2ccc(Cc3ccccc3)cc2Cc2ccccc2)CC[NH2+]1</t>
+          <t>NC(=O)C1CCN(C(=O)CCCC[C@H]2SC[C@H]3NC(=O)N[C@H]32)CC1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4571,25 +4571,25 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>499.66</v>
+        <v>354.48</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I60" t="n">
         <v>4</v>
       </c>
       <c r="J60" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>63.22</v>
+        <v>104.53</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -4600,7 +4600,7 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE83610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FED50&gt;</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -4612,7 +4612,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>C32106593</t>
+          <t>C40823325</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4620,12 +4620,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CC1(C)CC(N2CN(C3CC(C)(C)N(O)C(C)(C)C3)C[NH+](C3CC(C)(C)N(O)C(C)(C)C3)C2)CC(C)(C)N1O</t>
+          <t>Cc1c(C(=O)NN)oc2c1/C(=N/N=C(\[O-])C(F)(F)C(F)(F)C(F)(F)F)CCC2</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>CC1(C)CC(N2CN(C3CC(C)(C)N(O)C(C)(C)C3)C[NH+](C3CC(C)(C)N(O)C(C)(C)C3)C2)CC(C)(C)N1O</t>
+          <t>Cc1c(C(=O)NN)oc2c1/C(=N/N=C(\[O-])C(F)(F)C(F)(F)C(F)(F)F)CCC2</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4639,25 +4639,25 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>553.86</v>
+        <v>417.26</v>
       </c>
       <c r="H61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>81.33</v>
+        <v>116.04</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -4668,7 +4668,7 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE83920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FEDC0&gt;</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -4680,7 +4680,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>C63280025</t>
+          <t>C31160903</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4688,12 +4688,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>O=C(CNC(=O)[C@@H]1C=c2ccccc2=[NH+]1)N[C@H]1Nc2ccccc2S1</t>
+          <t>O=C1CCC=C[C@]1(O)C(=O)OCc1cccc(O)c1O[C@@H]1O[C@H](CO)[C@@H](O)[C@H](O)[C@@H]1O</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>O=C(CNC(=O)[C@@H]1C=c2ccccc2=[NH+]1)N[C@H]1Nc2ccccc2S1</t>
+          <t>O=C1CCC=C[C@]1(O)C(=O)OCc1cccc(O)c1O[C@@H]1O[C@H](CO)[C@@H](O)[C@H](O)[C@@H]1O</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4707,25 +4707,25 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>353.43</v>
+        <v>440.4</v>
       </c>
       <c r="H62" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J62" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>84.2</v>
+        <v>183.21</v>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -4736,7 +4736,7 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE834C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FEF80&gt;</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -4748,7 +4748,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>C67126209</t>
+          <t>C17213269</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -4756,12 +4756,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>NC(=O)C1CCN(C(=O)CCCC[C@H]2SC[C@H]3NC(=O)N[C@H]32)CC1</t>
+          <t>NN1C(=O)[C@H](CCO)S/C1=N\N=C1/S[C@H](CCO)C(=O)N1N</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NC(=O)C1CCN(C(=O)CCCC[C@H]2SC[C@H]3NC(=O)N[C@H]32)CC1</t>
+          <t>NN1C(=O)[C@H](CCO)S/C1=N\N=C1/S[C@H](CCO)C(=O)N1N</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4775,25 +4775,25 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>354.48</v>
+        <v>348.41</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>104.53</v>
+        <v>157.84</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -4804,7 +4804,7 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE83990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC3C0&gt;</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -4816,7 +4816,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>C40823325</t>
+          <t>C15020023</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -4824,12 +4824,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Cc1c(C(=O)NN)oc2c1/C(=N/N=C(\[O-])C(F)(F)C(F)(F)C(F)(F)F)CCC2</t>
+          <t>NC1=C/C(=N\c2ccc(N)cc2)C(N)=C/C1=N/c1ccc(N)cc1</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Cc1c(C(=O)NN)oc2c1/C(=N/N=C(\[O-])C(F)(F)C(F)(F)C(F)(F)F)CCC2</t>
+          <t>NC1=C/C(=N\c2ccc(N)cc2)C(N)=C/C1=N/c1ccc(N)cc1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4843,25 +4843,25 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>417.26</v>
+        <v>318.38</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I64" t="n">
         <v>4</v>
       </c>
       <c r="J64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M64" t="n">
-        <v>116.04</v>
+        <v>128.8</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -4872,7 +4872,7 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE818C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FDAF0&gt;</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -4884,7 +4884,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>C31160903</t>
+          <t>C08780825</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -4892,12 +4892,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>O=C1CCC=C[C@]1(O)C(=O)OCc1cccc(O)c1O[C@@H]1O[C@H](CO)[C@@H](O)[C@H](O)[C@@H]1O</t>
+          <t>N/C(CSc1nc(SC/C(N)=N\O)ns1)=N\O</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>O=C1CCC=C[C@]1(O)C(=O)OCc1cccc(O)c1O[C@@H]1O[C@H](CO)[C@@H](O)[C@H](O)[C@@H]1O</t>
+          <t>N/C(CSc1nc(SC/C(N)=N\O)ns1)=N\O</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4911,25 +4911,25 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>440.4</v>
+        <v>294.39</v>
       </c>
       <c r="H65" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J65" t="n">
         <v>6</v>
       </c>
       <c r="K65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
       <c r="M65" t="n">
-        <v>183.21</v>
+        <v>143</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -4940,7 +4940,7 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE82F80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FDF50&gt;</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -4952,7 +4952,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>C17213269</t>
+          <t>C15771457</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -4960,12 +4960,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>NN1C(=O)[C@H](CCO)S/C1=N\N=C1/S[C@H](CCO)C(=O)N1N</t>
+          <t>C[C@H](c1ccccc1)[C@H]([NH2+][C@@H]([C@@H](C)c1ccccc1)n1nnc2ccccc21)n1nnc2ccccc21</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NN1C(=O)[C@H](CCO)S/C1=N\N=C1/S[C@H](CCO)C(=O)N1N</t>
+          <t>C[C@@H](c1ccccc1)[C@H]([NH2+][C@@H]([C@H](C)c1ccccc1)n1nnc2ccccc21)n1nnc2ccccc21</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4979,25 +4979,25 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>348.41</v>
+        <v>488.62</v>
       </c>
       <c r="H66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
+        <v>4</v>
+      </c>
+      <c r="J66" t="n">
         <v>8</v>
       </c>
-      <c r="J66" t="n">
-        <v>5</v>
-      </c>
       <c r="K66" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M66" t="n">
-        <v>157.84</v>
+        <v>78.03</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -5008,7 +5008,7 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE83ED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE030&gt;</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -5020,7 +5020,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>C15020023</t>
+          <t>C10658655</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -5028,12 +5028,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>NC1=C/C(=N\c2ccc(N)cc2)C(N)=C/C1=N/c1ccc(N)cc1</t>
+          <t>Cc1sc2nc([C@@H](C)Sc3nc(N)cc(N)n3)nc(N)c2c1C</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NC1=C/C(=N\c2ccc(N)cc2)C(N)=C/C1=N/c1ccc(N)cc1</t>
+          <t>Cc1sc2nc([C@@H](C)Sc3nc(N)cc(N)n3)nc(N)c2c1C</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -5047,25 +5047,25 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>318.38</v>
+        <v>347.47</v>
       </c>
       <c r="H67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I67" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K67" t="n">
         <v>3</v>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M67" t="n">
-        <v>128.8</v>
+        <v>129.62</v>
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
@@ -5076,7 +5076,7 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE81930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE0A0&gt;</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -5088,7 +5088,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>C08780825</t>
+          <t>C01711862</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5096,12 +5096,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>N/C(CSc1nc(SC/C(N)=N\O)ns1)=N\O</t>
+          <t>O=C1NC(=O)C(=C2CCCCC2)N1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>N/C(CSc1nc(SC/C(N)=N\O)ns1)=N\O</t>
+          <t>O=C1NC(=O)C(=C2CCCCC2)N1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5115,25 +5115,25 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>294.39</v>
+        <v>180.21</v>
       </c>
       <c r="H68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>143</v>
+        <v>58.2</v>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
@@ -5144,7 +5144,7 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE803C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC270&gt;</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -5156,7 +5156,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>C15771457</t>
+          <t>C39111964</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -5164,12 +5164,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>C[C@H](c1ccccc1)[C@H]([NH2+][C@@H]([C@@H](C)c1ccccc1)n1nnc2ccccc21)n1nnc2ccccc21</t>
+          <t>O[C@@H]1C[C@H]2C[C@@H](O)C(F)(F)[C@H]2O1</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>C[C@@H](c1ccccc1)[C@H]([NH2+][C@@H]([C@H](C)c1ccccc1)n1nnc2ccccc21)n1nnc2ccccc21</t>
+          <t>O[C@@H]1C[C@H]2C[C@@H](O)C(F)(F)[C@H]2O1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5183,25 +5183,25 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>488.62</v>
+        <v>180.15</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L69" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>78.03</v>
+        <v>49.69</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -5212,7 +5212,7 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE80580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD770&gt;</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -5224,7 +5224,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>C10658655</t>
+          <t>C44832889</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -5232,12 +5232,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Cc1sc2nc([C@@H](C)Sc3nc(N)cc(N)n3)nc(N)c2c1C</t>
+          <t>CC(C)[C@@H](C(=O)N(C)C)C(N)=S</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Cc1sc2nc([C@@H](C)Sc3nc(N)cc(N)n3)nc(N)c2c1C</t>
+          <t>CC(C)[C@@H](C(=O)N(C)C)C(N)=S</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5251,25 +5251,25 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>347.47</v>
+        <v>188.3</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
         <v>3</v>
       </c>
       <c r="K70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>129.62</v>
+        <v>46.33</v>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -5280,7 +5280,7 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE82CE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD540&gt;</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -5292,7 +5292,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>C01711862</t>
+          <t>C45072164</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5300,12 +5300,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(=C2CCCCC2)N1</t>
+          <t>O=C1CC[C@]23[C@@H](CC[C@@H]12)C[C@H](O)[C@@H]3O</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(=C2CCCCC2)N1</t>
+          <t>O=C1CC[C@]23[C@@H](CC[C@@H]12)C[C@H](O)[C@@H]3O</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5319,25 +5319,25 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>180.21</v>
+        <v>196.25</v>
       </c>
       <c r="H71" t="n">
         <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>58.2</v>
+        <v>57.53</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -5348,7 +5348,7 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE82FF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE110&gt;</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -5360,7 +5360,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>C39111964</t>
+          <t>C13692037</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -5368,12 +5368,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>O[C@@H]1C[C@H]2C[C@@H](O)C(F)(F)[C@H]2O1</t>
+          <t>NC1=C(c2nc3ccccc3s2)C(=O)CN1/N=C/c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>O[C@@H]1C[C@H]2C[C@@H](O)C(F)(F)[C@H]2O1</t>
+          <t>NC1=C(c2nc3ccccc3s2)C(=O)CN1/N=C/c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5387,25 +5387,25 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>180.15</v>
+        <v>350.4</v>
       </c>
       <c r="H72" t="n">
         <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M72" t="n">
-        <v>49.69</v>
+        <v>91.81</v>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -5416,7 +5416,7 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE805F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE500&gt;</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
@@ -5428,7 +5428,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>C44832889</t>
+          <t>C39342451</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5436,12 +5436,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CC(C)[C@@H](C(=O)N(C)C)C(N)=S</t>
+          <t>N#CC1=C(N)OC2=NC(=O)NC(=O)[C@@H]2[C@@H]1c1cccc(Cl)c1Cl</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>CC(C)[C@@H](C(=O)N(C)C)C(N)=S</t>
+          <t>N#CC1=C(N)OC2=NC(=O)NC(=O)[C@@H]2[C@@H]1c1cccc(Cl)c1Cl</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5455,25 +5455,25 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>188.3</v>
+        <v>351.15</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" t="n">
-        <v>46.33</v>
+        <v>117.57</v>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -5484,7 +5484,7 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE837D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE960&gt;</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -5496,7 +5496,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>C45072164</t>
+          <t>C28823511</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5504,12 +5504,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>O=C1CC[C@]23[C@@H](CC[C@@H]12)C[C@H](O)[C@@H]3O</t>
+          <t>COc1c(O)ccc2c1C1=C(/C(=C/c3cccc(-c4cccnc4)c3)O2)[C@H]2C(C)=CC(C)(C)[NH2+][C@@H]2C=C1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>O=C1CC[C@]23[C@@H](CC[C@@H]12)C[C@H](O)[C@@H]3O</t>
+          <t>COc1c(O)ccc2c1C1=C(/C(=C/c3cccc(-c4cccnc4)c3)O2)[C@H]2C(C)=CC(C)(C)[NH2+][C@@H]2C=C1</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5523,25 +5523,25 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>196.25</v>
+        <v>491.61</v>
       </c>
       <c r="H74" t="n">
         <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K74" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
-        <v>57.53</v>
+        <v>68.19</v>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -5552,7 +5552,7 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE81AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FEC00&gt;</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
@@ -5564,7 +5564,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>C13692037</t>
+          <t>C43741012</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5572,12 +5572,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>NC1=C(c2nc3ccccc3s2)C(=O)CN1/N=C/c1ccc(O)cc1</t>
+          <t>C[C@@]12CCC3(CC1=CC[C@H]1[C@H]2CC[C@]2(C)[C@@H]1CC[C@@]2(O)C/[NH+]=C/c1cc(Cl)cc(Cl)c1O)OCCO3</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NC1=C(c2nc3ccccc3s2)C(=O)CN1/N=C/c1ccc(O)cc1</t>
+          <t>C[C@@]12CCC3(CC1=CC[C@H]1[C@H]2CC[C@]2(C)[C@@H]1CC[C@@]2(O)C/[NH+]=C/c1cc(Cl)cc(Cl)c1O)OCCO3</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5591,25 +5591,25 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>350.4</v>
+        <v>535.53</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J75" t="n">
         <v>3</v>
       </c>
       <c r="K75" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M75" t="n">
-        <v>91.81</v>
+        <v>72.89</v>
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
@@ -5620,7 +5620,7 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE81A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FCDD0&gt;</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
@@ -5632,7 +5632,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>C39342451</t>
+          <t>C49106360</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>N#CC1=C(N)OC2=NC(=O)NC(=O)[C@@H]2[C@@H]1c1cccc(Cl)c1Cl</t>
+          <t>Cc1[nH]/c(=N\S(=O)(=O)c2ccc(C#CC[NH3+])cc2)sc1C</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>N#CC1=C(N)OC2=NC(=O)NC(=O)[C@@H]2[C@@H]1c1cccc(Cl)c1Cl</t>
+          <t>Cc1[nH]/c(=N\S(=O)(=O)c2ccc(C#CC[NH3+])cc2)sc1C</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5659,25 +5659,25 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>351.15</v>
+        <v>322.44</v>
       </c>
       <c r="H76" t="n">
         <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M76" t="n">
-        <v>117.57</v>
+        <v>89.93000000000001</v>
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -5688,7 +5688,7 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE80190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD850&gt;</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
@@ -5700,7 +5700,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>C28823511</t>
+          <t>C05302065</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5708,12 +5708,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>COc1c(O)ccc2c1C1=C(/C(=C/c3cccc(-c4cccnc4)c3)O2)[C@H]2C(C)=CC(C)(C)[NH2+][C@@H]2C=C1</t>
+          <t>CC(CO)(CO)[NH2+]Cc1cc2cccc3ccc4cccc1c4c32</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>COc1c(O)ccc2c1C1=C(/C(=C/c3cccc(-c4cccnc4)c3)O2)[C@H]2C(C)=CC(C)(C)[NH2+][C@@H]2C=C1</t>
+          <t>CC(CO)(CO)[NH2+]Cc1cc2cccc3ccc4cccc1c4c32</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5727,25 +5727,25 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>491.61</v>
+        <v>320.41</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K77" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M77" t="n">
-        <v>68.19</v>
+        <v>57.07</v>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -5756,7 +5756,7 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE800B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FEB90&gt;</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
@@ -5768,7 +5768,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>C43741012</t>
+          <t>C39933473</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -5776,12 +5776,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>C[C@@]12CCC3(CC1=CC[C@H]1[C@H]2CC[C@]2(C)[C@@H]1CC[C@@]2(O)C/[NH+]=C/c1cc(Cl)cc(Cl)c1O)OCCO3</t>
+          <t>Nc1nc2c(OC(F)(F)C(F)F)cc3c(c2s1)N[C@H]([NH3+])S3</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>C[C@@]12CCC3(CC1=CC[C@H]1[C@H]2CC[C@]2(C)[C@@H]1CC[C@@]2(O)C/[NH+]=C/c1cc(Cl)cc(Cl)c1O)OCCO3</t>
+          <t>Nc1nc2c(OC(F)(F)C(F)F)cc3c(c2s1)N[C@H]([NH3+])S3</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5795,25 +5795,25 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>535.53</v>
+        <v>341.33</v>
       </c>
       <c r="H78" t="n">
         <v>3</v>
       </c>
       <c r="I78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J78" t="n">
         <v>3</v>
       </c>
       <c r="K78" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M78" t="n">
-        <v>72.89</v>
+        <v>87.81</v>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -5824,7 +5824,7 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE83370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FCC10&gt;</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
@@ -5836,7 +5836,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>C49106360</t>
+          <t>C66243711</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -5844,12 +5844,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cc1[nH]/c(=N\S(=O)(=O)c2ccc(C#CC[NH3+])cc2)sc1C</t>
+          <t>CC(C)(CN/C(N)=[NH+]/Cc1ccco1)c1ccc2c(c1)OCCO2</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Cc1[nH]/c(=N\S(=O)(=O)c2ccc(C#CC[NH3+])cc2)sc1C</t>
+          <t>CC(C)(CN/C(N)=[NH+]/Cc1ccco1)c1ccc2c(c1)OCCO2</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5863,25 +5863,25 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>322.44</v>
+        <v>330.41</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L79" t="n">
         <v>2</v>
       </c>
       <c r="M79" t="n">
-        <v>89.93000000000001</v>
+        <v>83.62</v>
       </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -5892,7 +5892,7 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE81E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FDD20&gt;</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
@@ -5904,7 +5904,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>C05302065</t>
+          <t>C27204622</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -5912,12 +5912,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CC(CO)(CO)[NH2+]Cc1cc2cccc3ccc4cccc1c4c32</t>
+          <t>Oc1ccc([C@H]2Sc3cc(O)ccc3O[C@H]2c2ccc(C3=CC[NH2+]CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>CC(CO)(CO)[NH2+]Cc1cc2cccc3ccc4cccc1c4c32</t>
+          <t>Oc1ccc([C@H]2Sc3cc(O)ccc3O[C@H]2c2ccc(C3=CC[NH2+]CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5931,25 +5931,25 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>320.41</v>
+        <v>418.54</v>
       </c>
       <c r="H80" t="n">
         <v>3</v>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J80" t="n">
+        <v>3</v>
+      </c>
+      <c r="K80" t="n">
         <v>5</v>
       </c>
-      <c r="K80" t="n">
-        <v>4</v>
-      </c>
       <c r="L80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M80" t="n">
-        <v>57.07</v>
+        <v>66.3</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -5960,7 +5960,7 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE833E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD5B0&gt;</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -5972,7 +5972,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>C39933473</t>
+          <t>C35145045</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -5980,12 +5980,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Nc1nc2c(OC(F)(F)C(F)F)cc3c(c2s1)N[C@H]([NH3+])S3</t>
+          <t>[H]/N=C1\N=C(N[C@H](O)C(Cl)(Cl)Cl)N[C@@H](C(Cl)(Cl)Cl)O1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Nc1nc2c(OC(F)(F)C(F)F)cc3c(c2s1)N[C@H]([NH3+])S3</t>
+          <t>[H]/N=C1\N=C(N[C@H](O)C(Cl)(Cl)Cl)N[C@@H](C(Cl)(Cl)Cl)O1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5999,25 +5999,25 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>341.33</v>
+        <v>378.86</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>87.81</v>
+        <v>89.73</v>
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE81620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD690&gt;</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
@@ -6040,7 +6040,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>C66243711</t>
+          <t>C31159486</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -6048,12 +6048,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CC(C)(CN/C(N)=[NH+]/Cc1ccco1)c1ccc2c(c1)OCCO2</t>
+          <t>C=C1[C@@H](O)[C@H](O)[C@]2(C[C@@H]3C(C)=CC[C@H]4[C@@](C)(CO)CCC[C@@]34C)O[C@@H]2[C@H]1O</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>CC(C)(CN/C(N)=[NH+]/Cc1ccco1)c1ccc2c(c1)OCCO2</t>
+          <t>C=C1[C@H](O)[C@H]2O[C@@]2(C[C@@H]2C(C)=CC[C@H]3[C@@](C)(CO)CCC[C@@]23C)[C@@H](O)[C@@H]1O</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -6067,25 +6067,25 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>330.41</v>
+        <v>378.51</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I82" t="n">
         <v>5</v>
       </c>
       <c r="J82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>83.62</v>
+        <v>93.45</v>
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE81000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE650&gt;</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
@@ -6108,7 +6108,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>C27204622</t>
+          <t>C09970486</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -6116,12 +6116,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Oc1ccc([C@H]2Sc3cc(O)ccc3O[C@H]2c2ccc(C3=CC[NH2+]CC3)cc2)cc1</t>
+          <t>CC(C)S[C@]1(C)O[C@](C)(CO)[C@@](C)(O)[C@@](C)(O)[C@@]1(C)O</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Oc1ccc([C@H]2Sc3cc(O)ccc3O[C@H]2c2ccc(C3=CC[NH2+]CC3)cc2)cc1</t>
+          <t>CC(C)S[C@]1(C)O[C@](C)(CO)[C@@](C)(O)[C@@](C)(O)[C@@]1(C)O</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -6135,25 +6135,25 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>418.54</v>
+        <v>308.44</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I83" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J83" t="n">
         <v>3</v>
       </c>
       <c r="K83" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>66.3</v>
+        <v>90.15000000000001</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -6164,7 +6164,7 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE81BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE7A0&gt;</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
@@ -6176,7 +6176,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>C35145045</t>
+          <t>C43415096</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -6184,12 +6184,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[H]/N=C1\N=C(N[C@H](O)C(Cl)(Cl)Cl)N[C@@H](C(Cl)(Cl)Cl)O1</t>
+          <t>N#Cc1cc(N)c(OCC(N)=O)c(I)c1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>[H]/N=C1\N=C(N[C@H](O)C(Cl)(Cl)Cl)N[C@@H](C(Cl)(Cl)Cl)O1</t>
+          <t>N#Cc1cc(N)c(OCC(N)=O)c(I)c1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -6203,25 +6203,25 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>378.86</v>
+        <v>317.09</v>
       </c>
       <c r="H84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
         <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K84" t="n">
         <v>1</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" t="n">
-        <v>89.73</v>
+        <v>102.13</v>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -6232,7 +6232,7 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE802E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FCCF0&gt;</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
@@ -6244,7 +6244,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>C31159486</t>
+          <t>C62953430</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -6252,12 +6252,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>C=C1[C@@H](O)[C@H](O)[C@]2(C[C@@H]3C(C)=CC[C@H]4[C@@](C)(CO)CCC[C@@]34C)O[C@@H]2[C@H]1O</t>
+          <t>Nc1cc(N2CCC3(CCCC3)CC2)cc(S(N)(=O)=O)c1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>C=C1[C@H](O)[C@H]2O[C@@]2(C[C@@H]2C(C)=CC[C@H]3[C@@](C)(CO)CCC[C@@]23C)[C@@H](O)[C@@H]1O</t>
+          <t>Nc1cc(N2CCC3(CCCC3)CC2)cc(S(N)(=O)=O)c1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -6271,25 +6271,25 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>378.51</v>
+        <v>309.44</v>
       </c>
       <c r="H85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="n">
-        <v>93.45</v>
+        <v>89.42</v>
       </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
@@ -6300,7 +6300,7 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE83220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD000&gt;</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
@@ -6312,7 +6312,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>C09970486</t>
+          <t>C43547990</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6320,12 +6320,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CC(C)S[C@]1(C)O[C@](C)(CO)[C@@](C)(O)[C@@](C)(O)[C@@]1(C)O</t>
+          <t>COCCNC(=O)CC[C@@]12CC[C@](C)(O)C[C@H]1C(C)(C)C[C@@H]2[NH2+]C1CCOCC1</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>CC(C)S[C@]1(C)O[C@](C)(CO)[C@@](C)(O)[C@@](C)(O)[C@@]1(C)O</t>
+          <t>COCCNC(=O)CC[C@@]12CC[C@](C)(O)C[C@H]1C(C)(C)C[C@@H]2[NH2+]C1CCOCC1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -6339,25 +6339,25 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>308.44</v>
+        <v>411.61</v>
       </c>
       <c r="H86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J86" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>90.15000000000001</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
@@ -6368,7 +6368,7 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE81D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD7E0&gt;</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -6380,7 +6380,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>C43415096</t>
+          <t>C11730929</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6388,12 +6388,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>N#Cc1cc(N)c(OCC(N)=O)c(I)c1</t>
+          <t>C[C@@H](O)C[NH+]1Cc2cccc(N)c2C1</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>N#Cc1cc(N)c(OCC(N)=O)c(I)c1</t>
+          <t>C[C@@H](O)C[NH+]1Cc2cccc(N)c2C1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -6407,25 +6407,25 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>317.09</v>
+        <v>193.27</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
       <c r="M87" t="n">
-        <v>102.13</v>
+        <v>50.69</v>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -6436,7 +6436,7 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE831B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD9A0&gt;</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
@@ -6448,7 +6448,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>C62953430</t>
+          <t>C63152764</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -6456,12 +6456,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Nc1cc(N2CCC3(CCCC3)CC2)cc(S(N)(=O)=O)c1</t>
+          <t>Nc1c[nH+]ccc1NCc1ccsc1</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Nc1cc(N2CCC3(CCCC3)CC2)cc(S(N)(=O)=O)c1</t>
+          <t>Nc1c[nH+]ccc1NCc1ccsc1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6475,25 +6475,25 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>309.44</v>
+        <v>206.29</v>
       </c>
       <c r="H88" t="n">
         <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M88" t="n">
-        <v>89.42</v>
+        <v>52.19</v>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -6504,7 +6504,7 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE81B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FDD90&gt;</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
@@ -6516,7 +6516,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>C43547990</t>
+          <t>C13999875</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6524,12 +6524,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>COCCNC(=O)CC[C@@]12CC[C@](C)(O)C[C@H]1C(C)(C)C[C@@H]2[NH2+]C1CCOCC1</t>
+          <t>O=C([O-])[C@@H]1CSC2([NH2+]1)[C@@H]1CCC[C@H]2C[NH2+]C1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>COCCNC(=O)CC[C@@]12CC[C@](C)(O)C[C@H]1C(C)(C)C[C@@H]2[NH2+]C1CCOCC1</t>
+          <t>O=C([O-])[C@@H]1CSC2([NH2+]1)[C@H]1CCC[C@@H]2C[NH2+]C1</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6543,16 +6543,16 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>411.61</v>
+        <v>243.35</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J89" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>3</v>
@@ -6561,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>84.40000000000001</v>
+        <v>73.34999999999999</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -6572,7 +6572,7 @@
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE82DC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FCA50&gt;</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
@@ -6584,7 +6584,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>C11730929</t>
+          <t>C43425014</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -6592,12 +6592,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>C[C@@H](O)C[NH+]1Cc2cccc(N)c2C1</t>
+          <t>[NH3+]C[C@@H](O)CN1CCO[C@H]2CCCC[C@H]21</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>C[C@@H](O)C[NH+]1Cc2cccc(N)c2C1</t>
+          <t>[NH3+]C[C@@H](O)CN1CCO[C@H]2CCCC[C@H]21</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6611,25 +6611,25 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>193.27</v>
+        <v>215.32</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K90" t="n">
         <v>2</v>
       </c>
       <c r="L90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>50.69</v>
+        <v>60.34</v>
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
@@ -6640,7 +6640,7 @@
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE83060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FCAC0&gt;</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
@@ -6652,7 +6652,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>C63152764</t>
+          <t>C55127321</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -6660,12 +6660,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Nc1c[nH+]ccc1NCc1ccsc1</t>
+          <t>C[C@@H]1CCC[C@@H](C(=O)N2CCC[C@H](O)C2)[C@@H]1[NH3+]</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Nc1c[nH+]ccc1NCc1ccsc1</t>
+          <t>C[C@@H]1CCC[C@@H](C(=O)N2CCC[C@H](O)C2)[C@@H]1[NH3+]</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -6679,7 +6679,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>206.29</v>
+        <v>241.35</v>
       </c>
       <c r="H91" t="n">
         <v>2</v>
@@ -6688,16 +6688,16 @@
         <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K91" t="n">
         <v>2</v>
       </c>
       <c r="L91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>52.19</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -6708,7 +6708,7 @@
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FE83AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD380&gt;</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
@@ -6720,7 +6720,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>C13999875</t>
+          <t>C48347270</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>O=C([O-])[C@@H]1CSC2([NH2+]1)[C@@H]1CCC[C@H]2C[NH2+]C1</t>
+          <t>CNC(=O)NC(=O)C[NH+]1CCC(CO)CC1</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>O=C([O-])[C@@H]1CSC2([NH2+]1)[C@H]1CCC[C@@H]2C[NH2+]C1</t>
+          <t>CNC(=O)NC(=O)C[NH+]1CCC(CO)CC1</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -6747,25 +6747,25 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>243.35</v>
+        <v>230.29</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I92" t="n">
         <v>3</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>73.34999999999999</v>
+        <v>82.87</v>
       </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
@@ -6776,7 +6776,7 @@
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3D620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD620&gt;</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
@@ -6788,7 +6788,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>C43425014</t>
+          <t>C51360541</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -6796,12 +6796,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>[NH3+]C[C@@H](O)CN1CCO[C@H]2CCCC[C@H]21</t>
+          <t>O=c1[nH]nc(N2CCC[C@H]2[C@@H]2CCC[NH2+]2)c(=O)[nH]1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>[NH3+]C[C@@H](O)CN1CCO[C@H]2CCCC[C@H]21</t>
+          <t>O=c1[nH]nc(N2CCC[C@H]2[C@@H]2CCC[NH2+]2)c(=O)[nH]1</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -6815,25 +6815,25 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>215.32</v>
+        <v>252.3</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" t="n">
-        <v>60.34</v>
+        <v>98.45999999999999</v>
       </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
@@ -6844,7 +6844,7 @@
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3D850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD150&gt;</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
@@ -6856,7 +6856,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>C55127321</t>
+          <t>C28525091</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -6864,12 +6864,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCC[C@@H](C(=O)N2CCC[C@H](O)C2)[C@@H]1[NH3+]</t>
+          <t>N#Cc1ccc(NCC(F)(F)c2ccccn2)[n+]([O-])c1C[C@H](O)NCc1ccccc1C[NH3+]</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCC[C@@H](C(=O)N2CCC[C@H](O)C2)[C@@H]1[NH3+]</t>
+          <t>N#Cc1ccc(NCC(F)(F)c2ccccn2)[n+]([O-])c1C[C@H](O)NCc1ccccc1C[NH3+]</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -6883,25 +6883,25 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>241.35</v>
+        <v>455.49</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M94" t="n">
-        <v>68.18000000000001</v>
+        <v>135.55</v>
       </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
@@ -6912,7 +6912,7 @@
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3F920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD930&gt;</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
@@ -6924,7 +6924,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>C48347270</t>
+          <t>C65739441</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -6932,12 +6932,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CNC(=O)NC(=O)C[NH+]1CCC(CO)CC1</t>
+          <t>CC[C@H]1C[C@@H](C(=O)N[C@@H]([C@H]2O[C@@H](SC)[C@@H](O)[C@@H](O)[C@H]2O)[C@@H](C)Cl)[NH+](C)C1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>CNC(=O)NC(=O)C[NH+]1CCC(CO)CC1</t>
+          <t>CC[C@H]1C[C@@H](C(=O)N[C@H]([C@@H](C)Cl)[C@H]2O[C@@H](SC)[C@@H](O)[C@@H](O)[C@H]2O)[NH+](C)C1</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -6951,25 +6951,25 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>230.29</v>
+        <v>411.97</v>
       </c>
       <c r="H95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J95" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>82.87</v>
+        <v>103.46</v>
       </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
@@ -6980,7 +6980,7 @@
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3E650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FDEE0&gt;</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
@@ -6992,7 +6992,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>C51360541</t>
+          <t>C12504513</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -7000,12 +7000,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>O=c1[nH]nc(N2CCC[C@H]2[C@@H]2CCC[NH2+]2)c(=O)[nH]1</t>
+          <t>NC(=[NH2+])c1ccc(O[C@H]2CO[C@H]3[C@@H]2OC[C@H]3Oc2ccc(C(N)=[NH2+])cc2)cc1</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>O=c1[nH]nc(N2CCC[C@H]2[C@@H]2CCC[NH2+]2)c(=O)[nH]1</t>
+          <t>NC(=[NH2+])c1ccc(O[C@H]2CO[C@@H]3[C@H](Oc4ccc(C(N)=[NH2+])cc4)CO[C@H]23)cc1</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -7019,25 +7019,25 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>252.3</v>
+        <v>384.44</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I96" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J96" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M96" t="n">
-        <v>98.45999999999999</v>
+        <v>140.14</v>
       </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
@@ -7048,7 +7048,7 @@
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3E3B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE180&gt;</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
@@ -7060,7 +7060,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>C28525091</t>
+          <t>C04477409</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -7068,12 +7068,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>N#Cc1ccc(NCC(F)(F)c2ccccn2)[n+]([O-])c1C[C@H](O)NCc1ccccc1C[NH3+]</t>
+          <t>[NH2+]=C1NNC(=[NH2+])C1=NNc1ccc(Cl)c(C(F)(F)F)c1</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>N#Cc1ccc(NCC(F)(F)c2ccccn2)[n+]([O-])c1C[C@H](O)NCc1ccccc1C[NH3+]</t>
+          <t>[NH2+]=C1NNC(=[NH2+])C1=NNc1ccc(Cl)c(C(F)(F)F)c1</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -7087,25 +7087,25 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>455.49</v>
+        <v>306.68</v>
       </c>
       <c r="H97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I97" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J97" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M97" t="n">
-        <v>135.55</v>
+        <v>99.63</v>
       </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
@@ -7116,7 +7116,7 @@
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3E730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE1F0&gt;</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
@@ -7128,7 +7128,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>C65739441</t>
+          <t>C35395455</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -7136,12 +7136,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CC[C@H]1C[C@@H](C(=O)N[C@@H]([C@H]2O[C@@H](SC)[C@@H](O)[C@@H](O)[C@H]2O)[C@@H](C)Cl)[NH+](C)C1</t>
+          <t>NC(=O)OC[C@H]1[C@H]2[NH+]=C(N)N[C@@]23N(CCC3(O)O)C(=[NH2+])N1O</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>CC[C@H]1C[C@@H](C(=O)N[C@H]([C@@H](C)Cl)[C@H]2O[C@@H](SC)[C@@H](O)[C@@H](O)[C@H]2O)[NH+](C)C1</t>
+          <t>NC(=O)OC[C@H]1[C@H]2[NH+]=C(N)N[C@@]23N(CCC3(O)O)C(=[NH2+])N1O</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -7155,25 +7155,25 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>411.97</v>
+        <v>317.31</v>
       </c>
       <c r="H98" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I98" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J98" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>103.46</v>
+        <v>197.1</v>
       </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -7184,7 +7184,7 @@
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3EDC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC2E0&gt;</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
@@ -7196,7 +7196,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>C12504513</t>
+          <t>C44712506</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -7204,12 +7204,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>NC(=[NH2+])c1ccc(O[C@H]2CO[C@H]3[C@@H]2OC[C@H]3Oc2ccc(C(N)=[NH2+])cc2)cc1</t>
+          <t>Nc1nc(N)nc(OCCOc2nc(N)nc(N)n2)n1</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NC(=[NH2+])c1ccc(O[C@H]2CO[C@@H]3[C@H](Oc4ccc(C(N)=[NH2+])cc4)CO[C@H]23)cc1</t>
+          <t>Nc1nc(N)nc(OCCOc2nc(N)nc(N)n2)n1</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -7223,25 +7223,25 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>384.44</v>
+        <v>280.25</v>
       </c>
       <c r="H99" t="n">
         <v>4</v>
       </c>
       <c r="I99" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L99" t="n">
         <v>2</v>
       </c>
       <c r="M99" t="n">
-        <v>140.14</v>
+        <v>199.88</v>
       </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -7252,7 +7252,7 @@
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3D770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FCF20&gt;</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
@@ -7264,7 +7264,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>C04477409</t>
+          <t>C12290233</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -7272,12 +7272,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[NH2+]=C1NNC(=[NH2+])C1=NNc1ccc(Cl)c(C(F)(F)F)c1</t>
+          <t>CCOC(=O)C1CC[NH+]([C@@H](c2ccc(F)cc2)c2cc(CC)sc2NC(=O)c2ccccc2)CC1</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>[NH2+]=C1NNC(=[NH2+])C1=NNc1ccc(Cl)c(C(F)(F)F)c1</t>
+          <t>CCOC(=O)C1CC[NH+]([C@@H](c2ccc(F)cc2)c2cc(CC)sc2NC(=O)c2ccccc2)CC1</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -7291,25 +7291,25 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>306.68</v>
+        <v>495.64</v>
       </c>
       <c r="H100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
         <v>3</v>
       </c>
       <c r="J100" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M100" t="n">
-        <v>99.63</v>
+        <v>59.84</v>
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
@@ -7320,7 +7320,7 @@
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3D000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD460&gt;</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
@@ -7332,7 +7332,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>C35395455</t>
+          <t>C46285566</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -7340,12 +7340,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>NC(=O)OC[C@H]1[C@H]2[NH+]=C(N)N[C@@]23N(CCC3(O)O)C(=[NH2+])N1O</t>
+          <t>Cc1cccc(O[C@H](C)C(=O)NNC(=O)NCc2cc[nH+]c(N(C)C)c2)c1C</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NC(=O)OC[C@H]1[C@H]2[NH+]=C(N)N[C@@]23N(CCC3(O)O)C(=[NH2+])N1O</t>
+          <t>Cc1cccc(O[C@H](C)C(=O)NNC(=O)NCc2cc[nH+]c(N(C)C)c2)c1C</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -7359,25 +7359,25 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>317.31</v>
+        <v>386.48</v>
       </c>
       <c r="H101" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I101" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J101" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M101" t="n">
-        <v>197.1</v>
+        <v>96.84</v>
       </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
@@ -7388,7 +7388,7 @@
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3F530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FDA10&gt;</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
@@ -7400,7 +7400,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>C44712506</t>
+          <t>C31891012</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -7408,12 +7408,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Nc1nc(N)nc(OCCOc2nc(N)nc(N)n2)n1</t>
+          <t>CCCCn1c(N)c(CN2CC[NH+](C)CC2)c(=O)[nH]c1=O</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Nc1nc(N)nc(OCCOc2nc(N)nc(N)n2)n1</t>
+          <t>CCCCn1c(N)c(CN2CC[NH+](C)CC2)c(=O)[nH]c1=O</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -7427,13 +7427,13 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>280.25</v>
+        <v>296.4</v>
       </c>
       <c r="H102" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I102" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J102" t="n">
         <v>5</v>
@@ -7442,10 +7442,10 @@
         <v>2</v>
       </c>
       <c r="L102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M102" t="n">
-        <v>199.88</v>
+        <v>88.56</v>
       </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
@@ -7456,7 +7456,7 @@
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3F4C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FDB60&gt;</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
@@ -7468,7 +7468,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>C12290233</t>
+          <t>C04235333</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -7476,12 +7476,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CCOC(=O)C1CC[NH+]([C@@H](c2ccc(F)cc2)c2cc(CC)sc2NC(=O)c2ccccc2)CC1</t>
+          <t>CN1/C(=C/C=C2CCCC(/C=C/C3=[N+](C)c4ccc([N+](=O)[O-])cc4C3(C)C)=C2Cl)C(C)(C)c2cc([N+](=O)[O-])ccc21</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>CCOC(=O)C1CC[NH+]([C@@H](c2ccc(F)cc2)c2cc(CC)sc2NC(=O)c2ccccc2)CC1</t>
+          <t>CN1/C(=C/C=C2CCCC(/C=C/C3=[N+](C)c4ccc([N+](=O)[O-])cc4C3(C)C)=C2Cl)C(C)(C)c2cc([N+](=O)[O-])ccc21</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -7495,25 +7495,25 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>495.64</v>
+        <v>574.1</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J103" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K103" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M103" t="n">
-        <v>59.84</v>
+        <v>92.53</v>
       </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
@@ -7524,7 +7524,7 @@
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3E880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD230&gt;</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
@@ -7536,7 +7536,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>C46285566</t>
+          <t>C11968398</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -7544,12 +7544,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Cc1cccc(O[C@H](C)C(=O)NNC(=O)NCc2cc[nH+]c(N(C)C)c2)c1C</t>
+          <t>COc1ccc(OC)c2nc(-c3ccc(C)cc3)c(CN(CC[NH+](C)C)C(=O)c3ccc4c(c3)OCO4)cc12</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Cc1cccc(O[C@H](C)C(=O)NNC(=O)NCc2cc[nH+]c(N(C)C)c2)c1C</t>
+          <t>COc1ccc(OC)c2nc(-c3ccc(C)cc3)c(CN(CC[NH+](C)C)C(=O)c3ccc4c(c3)OCO4)cc12</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -7563,25 +7563,25 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>386.48</v>
+        <v>528.63</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J104" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K104" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L104" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M104" t="n">
-        <v>96.84</v>
+        <v>74.56</v>
       </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
@@ -7592,7 +7592,7 @@
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3E340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD8C0&gt;</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
@@ -7604,7 +7604,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>C31891012</t>
+          <t>C19323147</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -7612,12 +7612,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CCCCn1c(N)c(CN2CC[NH+](C)CC2)c(=O)[nH]c1=O</t>
+          <t>CC(C)[C@@]12CN3C[C@@](C(C)C)(C[NH+](C1)[C@H]3[C@H](O)[C@H](O)[C@H](O)CO)C2=O</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>CCCCn1c(N)c(CN2CC[NH+](C)CC2)c(=O)[nH]c1=O</t>
+          <t>CC(C)[C@]12CN3C[C@](C(C)C)(C[NH+](C1)[C@H]3[C@H](O)[C@H](O)[C@H](O)CO)C2=O</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -7631,25 +7631,25 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>296.4</v>
+        <v>357.47</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I105" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J105" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K105" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M105" t="n">
-        <v>88.56</v>
+        <v>105.67</v>
       </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
@@ -7660,7 +7660,7 @@
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3F290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE260&gt;</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
@@ -7672,7 +7672,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>C04235333</t>
+          <t>C20902860</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -7680,12 +7680,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CN1/C(=C/C=C2CCCC(/C=C/C3=[N+](C)c4ccc([N+](=O)[O-])cc4C3(C)C)=C2Cl)C(C)(C)c2cc([N+](=O)[O-])ccc21</t>
+          <t>C[C@H]1CCC[C@H](C)[NH+]1CCCN1C(=O)c2cc3ccccc3n2C[C@@]1(C)C(=O)NC1CCCCC1</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>CN1/C(=C/C=C2CCCC(/C=C/C3=[N+](C)c4ccc([N+](=O)[O-])cc4C3(C)C)=C2Cl)C(C)(C)c2cc([N+](=O)[O-])ccc21</t>
+          <t>C[C@H]1CCC[C@H](C)[NH+]1CCCN1C(=O)c2cc3ccccc3n2C[C@@]1(C)C(=O)NC1CCCCC1</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -7699,16 +7699,16 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>574.1</v>
+        <v>479.69</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J106" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K106" t="n">
         <v>5</v>
@@ -7717,7 +7717,7 @@
         <v>2</v>
       </c>
       <c r="M106" t="n">
-        <v>92.53</v>
+        <v>58.78</v>
       </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
@@ -7728,7 +7728,7 @@
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3DF50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE570&gt;</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
@@ -7740,7 +7740,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>C11968398</t>
+          <t>C19890432</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>COc1ccc(OC)c2nc(-c3ccc(C)cc3)c(CN(CC[NH+](C)C)C(=O)c3ccc4c(c3)OCO4)cc12</t>
+          <t>C[NH+]1CCc2c(sc(/[NH+]=C/c3cc(Br)cc(Cl)c3[O-])c2C(=O)OC(C)(C)C)C1</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>COc1ccc(OC)c2nc(-c3ccc(C)cc3)c(CN(CC[NH+](C)C)C(=O)c3ccc4c(c3)OCO4)cc12</t>
+          <t>C[NH+]1CCc2c(sc(/[NH+]=C/c3cc(Br)cc(Cl)c3[O-])c2C(=O)OC(C)(C)C)C1</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -7767,25 +7767,25 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>528.63</v>
+        <v>486.84</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K107" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M107" t="n">
-        <v>74.56</v>
+        <v>67.77</v>
       </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
@@ -7796,7 +7796,7 @@
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3DA80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE730&gt;</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
@@ -7808,7 +7808,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>C19323147</t>
+          <t>C12559528</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -7816,12 +7816,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CC(C)[C@@]12CN3C[C@@](C(C)C)(C[NH+](C1)[C@H]3[C@H](O)[C@H](O)[C@H](O)CO)C2=O</t>
+          <t>C=CCn1c(-c2ccc(Cl)cc2)cs/c1=[NH+]/c1ccc(S(=O)(=O)Nc2nc(C)cc(C)n2)cc1</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>CC(C)[C@]12CN3C[C@](C(C)C)(C[NH+](C1)[C@H]3[C@H](O)[C@H](O)[C@H](O)CO)C2=O</t>
+          <t>C=CCn1c(-c2ccc(Cl)cc2)cs/c1=[NH+]/c1ccc(S(=O)(=O)Nc2nc(C)cc(C)n2)cc1</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -7835,25 +7835,25 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>357.47</v>
+        <v>513.0700000000001</v>
       </c>
       <c r="H108" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J108" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K108" t="n">
         <v>4</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M108" t="n">
-        <v>105.67</v>
+        <v>90.84999999999999</v>
       </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
@@ -7864,7 +7864,7 @@
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3E110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE880&gt;</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
@@ -7876,7 +7876,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>C20902860</t>
+          <t>C36869535</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -7884,12 +7884,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>C[C@H]1CCC[C@H](C)[NH+]1CCCN1C(=O)c2cc3ccccc3n2C[C@@]1(C)C(=O)NC1CCCCC1</t>
+          <t>CN(c1c(N)c[nH+]c2ccc(Br)cc12)[C@H]1CCS(=O)(=O)C1</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>C[C@H]1CCC[C@H](C)[NH+]1CCCN1C(=O)c2cc3ccccc3n2C[C@@]1(C)C(=O)NC1CCCCC1</t>
+          <t>CN(c1c(N)c[nH+]c2ccc(Br)cc12)[C@H]1CCS(=O)(=O)C1</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -7899,29 +7899,29 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>479.69</v>
+        <v>371.28</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J109" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K109" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L109" t="n">
         <v>2</v>
       </c>
       <c r="M109" t="n">
-        <v>58.78</v>
+        <v>77.54000000000001</v>
       </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
@@ -7932,7 +7932,7 @@
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3DEE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE8F0&gt;</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
@@ -7944,7 +7944,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>C19890432</t>
+          <t>C39467324</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -7952,12 +7952,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>C[NH+]1CCc2c(sc(/[NH+]=C/c3cc(Br)cc(Cl)c3[O-])c2C(=O)OC(C)(C)C)C1</t>
+          <t>O=[P@@]1(c2ccccc2O)N[NH+]2C[C@@H]3C=C(Br)C(O)=C[C@@H]3C[C@@H]2CO1</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>C[NH+]1CCc2c(sc(/[NH+]=C/c3cc(Br)cc(Cl)c3[O-])c2C(=O)OC(C)(C)C)C1</t>
+          <t>O=[P@@]1(c2ccccc2O)N[NH+]2C[C@@H]3C=C(Br)C(O)=C[C@@H]3C[C@@H]2CO1</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -7967,29 +7967,29 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>486.84</v>
+        <v>414.22</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I110" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K110" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M110" t="n">
-        <v>67.77</v>
+        <v>83.23</v>
       </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
@@ -8000,7 +8000,7 @@
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3D460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE9D0&gt;</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
@@ -8012,7 +8012,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>C12559528</t>
+          <t>C42399444</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -8020,12 +8020,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>C=CCn1c(-c2ccc(Cl)cc2)cs/c1=[NH+]/c1ccc(S(=O)(=O)Nc2nc(C)cc(C)n2)cc1</t>
+          <t>C[NH+](Cc1cc(Br)cs1)Cc1ccccc1/C(N)=N/O</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>C=CCn1c(-c2ccc(Cl)cc2)cs/c1=[NH+]/c1ccc(S(=O)(=O)Nc2nc(C)cc(C)n2)cc1</t>
+          <t>C[NH+](Cc1cc(Br)cs1)Cc1ccccc1/C(N)=N/O</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -8035,29 +8035,29 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>513.0700000000001</v>
+        <v>355.28</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I111" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J111" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K111" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L111" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M111" t="n">
-        <v>90.84999999999999</v>
+        <v>63.05</v>
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
@@ -8068,7 +8068,7 @@
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3F5A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FEA40&gt;</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
@@ -8080,7 +8080,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>C36869535</t>
+          <t>C40862215</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -8088,12 +8088,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CN(c1c(N)c[nH+]c2ccc(Br)cc12)[C@H]1CCS(=O)(=O)C1</t>
+          <t>C[C@H](CNS(=O)(=O)N1CC[NH2+]CC1)C[NH+]1CCCCC1</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>CN(c1c(N)c[nH+]c2ccc(Br)cc12)[C@H]1CCS(=O)(=O)C1</t>
+          <t>C[C@H](CNS(=O)(=O)N1CC[NH2+]CC1)C[NH+]1CCCCC1</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -8107,25 +8107,25 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>371.28</v>
+        <v>306.48</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I112" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J112" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M112" t="n">
-        <v>77.54000000000001</v>
+        <v>70.45999999999999</v>
       </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
@@ -8136,7 +8136,7 @@
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3DA10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FEAB0&gt;</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
@@ -8148,7 +8148,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>C39467324</t>
+          <t>C37969113</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -8156,12 +8156,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>O=[P@@]1(c2ccccc2O)N[NH+]2C[C@@H]3C=C(Br)C(O)=C[C@@H]3C[C@@H]2CO1</t>
+          <t>NC(=O)[C@H]([NH2+]C1CCCC1)c1cc(Cl)cc(Cl)c1</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>O=[P@@]1(c2ccccc2O)N[NH+]2C[C@@H]3C=C(Br)C(O)=C[C@@H]3C[C@@H]2CO1</t>
+          <t>NC(=O)[C@H]([NH2+]C1CCCC1)c1cc(Cl)cc(Cl)c1</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -8175,25 +8175,25 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>414.22</v>
+        <v>288.2</v>
       </c>
       <c r="H113" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K113" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
       <c r="M113" t="n">
-        <v>83.23</v>
+        <v>59.7</v>
       </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
@@ -8204,7 +8204,7 @@
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3D230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FEB20&gt;</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
@@ -8216,7 +8216,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>C42399444</t>
+          <t>C61711395</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -8224,12 +8224,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>C[NH+](Cc1cc(Br)cs1)Cc1ccccc1/C(N)=N/O</t>
+          <t>N[C@@H]1CCCCC[C@H]1[NH+]1CC[C@H](O)C1</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>C[NH+](Cc1cc(Br)cs1)Cc1ccccc1/C(N)=N/O</t>
+          <t>N[C@@H]1CCCCC[C@H]1[NH+]1CC[C@H](O)C1</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -8243,7 +8243,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>355.28</v>
+        <v>199.32</v>
       </c>
       <c r="H114" t="n">
         <v>3</v>
@@ -8252,16 +8252,16 @@
         <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K114" t="n">
         <v>2</v>
       </c>
       <c r="L114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>63.05</v>
+        <v>50.69</v>
       </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3ED50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FCF90&gt;</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
@@ -8284,7 +8284,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>C40862215</t>
+          <t>C43401365</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -8292,12 +8292,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>C[C@H](CNS(=O)(=O)N1CC[NH2+]CC1)C[NH+]1CCCCC1</t>
+          <t>Cc1cnn(-c2nc(C)ccc2C(N)=[NH2+])c1</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>C[C@H](CNS(=O)(=O)N1CC[NH2+]CC1)C[NH+]1CCCCC1</t>
+          <t>Cc1cnn(-c2nc(C)ccc2C(N)=[NH2+])c1</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -8311,25 +8311,25 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>306.48</v>
+        <v>216.27</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J115" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K115" t="n">
         <v>2</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M115" t="n">
-        <v>70.45999999999999</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
@@ -8340,7 +8340,7 @@
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3FCA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD070&gt;</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
@@ -8352,7 +8352,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>C37969113</t>
+          <t>C63513822</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -8360,12 +8360,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>NC(=O)[C@H]([NH2+]C1CCCC1)c1cc(Cl)cc(Cl)c1</t>
+          <t>COc1ccc2c(c1)=C(CCNS(=O)(=O)c1c(C)[nH]c(=O)[nH]c1=O)[C@@H](C)[NH+]=2</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>NC(=O)[C@H]([NH2+]C1CCCC1)c1cc(Cl)cc(Cl)c1</t>
+          <t>COc1ccc2c(c1)=C(CCNS(=O)(=O)c1c(C)[nH]c(=O)[nH]c1=O)[C@@H](C)[NH+]=2</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -8379,25 +8379,25 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>288.2</v>
+        <v>393.45</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J116" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M116" t="n">
-        <v>59.7</v>
+        <v>135.09</v>
       </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
@@ -8408,7 +8408,7 @@
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3DE00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD2A0&gt;</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
@@ -8420,7 +8420,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>C61711395</t>
+          <t>CHEMBL3732044</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -8428,12 +8428,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>N[C@@H]1CCCCC[C@H]1[NH+]1CC[C@H](O)C1</t>
+          <t>NCCN1C(=O)S/C(=C\CCC2CCCCC2)C1=O</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>N[C@@H]1CCCCC[C@H]1[NH+]1CC[C@H](O)C1</t>
+          <t>NCCN1C(=O)S/C(=C\CCC2CCCCC2)C1=O</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -8443,20 +8443,20 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>199.32</v>
+        <v>282.41</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J117" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K117" t="n">
         <v>2</v>
@@ -8465,18 +8465,44 @@
         <v>0</v>
       </c>
       <c r="M117" t="n">
-        <v>50.69</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr"/>
-      <c r="T117" t="inlineStr"/>
+        <v>63.4</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>8</v>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>CHEMBL3734458</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>Inhibition of recombinant human AKT2 using fluorescein-labeled peptide as substrate by fluorescence-electrophoretic mobility shift assay</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3F300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FCE40&gt;</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
@@ -8488,7 +8514,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>C43401365</t>
+          <t>CHEMBL2420923</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -8496,12 +8522,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Cc1cnn(-c2nc(C)ccc2C(N)=[NH2+])c1</t>
+          <t>O=S(=O)(c1cccc2cnccc12)N1CCCC12CCNCC2</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Cc1cnn(-c2nc(C)ccc2C(N)=[NH2+])c1</t>
+          <t>O=S(=O)(c1cccc2cnccc12)N1CCCC12CCNCC2</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -8511,40 +8537,66 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>216.27</v>
+        <v>331.44</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J118" t="n">
         <v>2</v>
       </c>
       <c r="K118" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L118" t="n">
         <v>2</v>
       </c>
       <c r="M118" t="n">
-        <v>82.31999999999999</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
+        <v>62.3</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>13</v>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>CHEMBL2424336</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>Inhibition of AKT2 (unknown origin) at 30 uM by microfluidic mobility shift assay relative to control</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3E8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD0E0&gt;</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
@@ -8556,7 +8608,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>C63513822</t>
+          <t>CHEMBL48082</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -8564,12 +8616,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>COc1ccc2c(c1)=C(CCNS(=O)(=O)c1c(C)[nH]c(=O)[nH]c1=O)[C@@H](C)[NH+]=2</t>
+          <t>Nc1nccc(-c2c[nH]c3ccccc23)n1</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>COc1ccc2c(c1)=C(CCNS(=O)(=O)c1c(C)[nH]c(=O)[nH]c1=O)[C@@H](C)[NH+]=2</t>
+          <t>Nc1nccc(-c2c[nH]c3ccccc23)n1</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -8579,40 +8631,66 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>393.45</v>
+        <v>210.24</v>
       </c>
       <c r="H119" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J119" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K119" t="n">
         <v>3</v>
       </c>
       <c r="L119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M119" t="n">
-        <v>135.09</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr"/>
+        <v>67.59</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>CHEMBL3599520</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>Inhibition of PKBbeta (unknown origin) at 0.5 uM relative to control</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3FED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FDBD0&gt;</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
@@ -8624,7 +8702,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CHEMBL3732044</t>
+          <t>CHEMBL1241578</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -8632,12 +8710,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>NCCN1C(=O)S/C(=C\CCC2CCCCC2)C1=O</t>
+          <t>CC(C)n1nc(-c2ccc(Br)c(O)c2)c2c(N)ncnc21</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>NCCN1C(=O)S/C(=C\CCC2CCCCC2)C1=O</t>
+          <t>CC(C)n1nc(-c2ccc(Br)c(O)c2)c2c(N)ncnc21</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -8651,25 +8729,25 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>282.41</v>
+        <v>348.2</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J120" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M120" t="n">
-        <v>63.4</v>
+        <v>89.84999999999999</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -8687,16 +8765,16 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>CHEMBL3734458</t>
+          <t>CHEMBL1243989</t>
         </is>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>Inhibition of recombinant human AKT2 using fluorescein-labeled peptide as substrate by fluorescence-electrophoretic mobility shift assay</t>
+          <t>Inhibition of AKT2 at 1 uM after 60 mins by FRET assay in presence of 10 uM ATP</t>
         </is>
       </c>
       <c r="T120" t="inlineStr">
@@ -8706,7 +8784,7 @@
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3FD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE3B0&gt;</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
@@ -8718,7 +8796,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CHEMBL2420923</t>
+          <t>CHEMBL1077739</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -8726,12 +8804,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>O=S(=O)(c1cccc2cnccc12)N1CCCC12CCNCC2</t>
+          <t>O=C(Nc1ccccc1Cl)c1cnc2ccc(C3CCNCC3)cn12</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>O=S(=O)(c1cccc2cnccc12)N1CCCC12CCNCC2</t>
+          <t>O=C(Nc1ccccc1Cl)c1cnc2ccc(C3CCNCC3)cn12</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -8745,25 +8823,25 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>331.44</v>
+        <v>354.84</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K121" t="n">
         <v>4</v>
       </c>
       <c r="L121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M121" t="n">
-        <v>62.3</v>
+        <v>58.43</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -8781,16 +8859,16 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>CHEMBL2424336</t>
+          <t>CHEMBL1111287</t>
         </is>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>Inhibition of AKT2 (unknown origin) at 30 uM by microfluidic mobility shift assay relative to control</t>
+          <t>Inhibition of AKT2 at 5 uM</t>
         </is>
       </c>
       <c r="T121" t="inlineStr">
@@ -8800,7 +8878,7 @@
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FF3D2A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE490&gt;</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
@@ -8812,7 +8890,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CHEMBL48082</t>
+          <t>CHEMBL185962</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -8820,12 +8898,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Nc1nccc(-c2c[nH]c3ccccc23)n1</t>
+          <t>Nc1nonc1-c1nc2cnccc2n1C1CC1</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Nc1nccc(-c2c[nH]c3ccccc23)n1</t>
+          <t>Nc1nonc1-c1nc2cnccc2n1C1CC1</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -8839,25 +8917,25 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>210.24</v>
+        <v>242.24</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K122" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L122" t="n">
         <v>3</v>
       </c>
       <c r="M122" t="n">
-        <v>67.59</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -8875,16 +8953,16 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>CHEMBL3599520</t>
+          <t>CHEMBL1961877</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>Inhibition of PKBbeta (unknown origin) at 0.5 uM relative to control</t>
+          <t>GSK_PKIS: AKT2 mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T122" t="inlineStr">
@@ -8894,7 +8972,7 @@
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEB8740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE5E0&gt;</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
@@ -8906,7 +8984,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CHEMBL1241578</t>
+          <t>CHEMBL1880739</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -8914,12 +8992,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>CC(C)n1nc(-c2ccc(Br)c(O)c2)c2c(N)ncnc21</t>
+          <t>O=C1Nc2ccc(I)cc2C1=Cc1cc(Br)c(O)c(Br)c1</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>CC(C)n1nc(-c2ccc(Br)c(O)c2)c2c(N)ncnc21</t>
+          <t>O=C1Nc2ccc(I)cc2C1=Cc1cc(Br)c(O)c(Br)c1</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -8933,25 +9011,25 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>348.2</v>
+        <v>520.95</v>
       </c>
       <c r="H123" t="n">
         <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K123" t="n">
         <v>3</v>
       </c>
       <c r="L123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M123" t="n">
-        <v>89.84999999999999</v>
+        <v>49.33</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -8969,16 +9047,16 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>1</v>
+        <v>1.41</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>CHEMBL1243989</t>
+          <t>CHEMBL1961877</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>Inhibition of AKT2 at 1 uM after 60 mins by FRET assay in presence of 10 uM ATP</t>
+          <t>GSK_PKIS: AKT2 mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T123" t="inlineStr">
@@ -8988,7 +9066,7 @@
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEB89E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FDC40&gt;</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
@@ -9000,7 +9078,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>CHEMBL1077739</t>
+          <t>CHEMBL1909351</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -9008,12 +9086,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccccc1Cl)c1cnc2ccc(C3CCNCC3)cn12</t>
+          <t>NS(=O)(=O)c1cccc(Nc2cc(-c3ccc(F)cc3)n[nH]2)c1</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccccc1Cl)c1cnc2ccc(C3CCNCC3)cn12</t>
+          <t>NS(=O)(=O)c1cccc(Nc2cc(-c3ccc(F)cc3)n[nH]2)c1</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -9027,25 +9105,25 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>354.84</v>
+        <v>332.36</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J124" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K124" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L124" t="n">
         <v>3</v>
       </c>
       <c r="M124" t="n">
-        <v>58.43</v>
+        <v>100.87</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9063,16 +9141,16 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>-1</v>
+        <v>3.08</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>CHEMBL1111287</t>
+          <t>CHEMBL1961877</t>
         </is>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>Inhibition of AKT2 at 5 uM</t>
+          <t>GSK_PKIS: AKT2 mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T124" t="inlineStr">
@@ -9082,7 +9160,7 @@
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEB92A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FDE70&gt;</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
@@ -9094,7 +9172,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CHEMBL185962</t>
+          <t>CHEMBL318728</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -9102,12 +9180,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Nc1nonc1-c1nc2cnccc2n1C1CC1</t>
+          <t>c1ccc(Nc2ncc(-c3ccccc3)o2)cc1</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Nc1nonc1-c1nc2cnccc2n1C1CC1</t>
+          <t>c1ccc(Nc2ncc(-c3ccccc3)o2)cc1</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -9121,25 +9199,25 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>242.24</v>
+        <v>236.27</v>
       </c>
       <c r="H125" t="n">
         <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K125" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L125" t="n">
         <v>3</v>
       </c>
       <c r="M125" t="n">
-        <v>95.65000000000001</v>
+        <v>38.06</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9157,16 +9235,16 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>CHEMBL1961877</t>
+          <t>CHEMBL1961876</t>
         </is>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: AKT2 mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T125" t="inlineStr">
@@ -9176,7 +9254,7 @@
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEBA490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE340&gt;</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
@@ -9188,7 +9266,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>CHEMBL1880739</t>
+          <t>CHEMBL505187</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -9196,12 +9274,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>O=C1Nc2ccc(I)cc2C1=Cc1cc(Br)c(O)c(Br)c1</t>
+          <t>CCn1cc(-c2ccnc3[nH]ccc23)c(-c2cccc(NC(=O)Nc3ccc(OCc4ccccc4)cc3)c2)n1</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>O=C1Nc2ccc(I)cc2C1=Cc1cc(Br)c(O)c(Br)c1</t>
+          <t>CCn1cc(-c2ccnc3[nH]ccc23)c(-c2cccc(NC(=O)Nc3ccc(OCc4ccccc4)cc3)c2)n1</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -9215,25 +9293,25 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>520.95</v>
+        <v>528.62</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I126" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J126" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K126" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L126" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M126" t="n">
-        <v>49.33</v>
+        <v>96.86</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9251,16 +9329,16 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>1.41</v>
+        <v>2.9</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>CHEMBL1961877</t>
+          <t>CHEMBL1961876</t>
         </is>
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: AKT2 mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T126" t="inlineStr">
@@ -9270,292 +9348,10 @@
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEB83C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE420&gt;</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>CHEMBL1909351</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>0</v>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>NS(=O)(=O)c1cccc(Nc2cc(-c3ccc(F)cc3)n[nH]2)c1</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>NS(=O)(=O)c1cccc(Nc2cc(-c3ccc(F)cc3)n[nH]2)c1</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G127" t="n">
-        <v>332.36</v>
-      </c>
-      <c r="H127" t="n">
-        <v>3</v>
-      </c>
-      <c r="I127" t="n">
-        <v>4</v>
-      </c>
-      <c r="J127" t="n">
-        <v>4</v>
-      </c>
-      <c r="K127" t="n">
-        <v>3</v>
-      </c>
-      <c r="L127" t="n">
-        <v>3</v>
-      </c>
-      <c r="M127" t="n">
-        <v>100.87</v>
-      </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P127" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q127" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="R127" t="inlineStr">
-        <is>
-          <t>CHEMBL1961877</t>
-        </is>
-      </c>
-      <c r="S127" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T127" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U127" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEB80B0&gt;</t>
-        </is>
-      </c>
-      <c r="V127" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>CHEMBL318728</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>0</v>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>c1ccc(Nc2ncc(-c3ccccc3)o2)cc1</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>c1ccc(Nc2ncc(-c3ccccc3)o2)cc1</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G128" t="n">
-        <v>236.27</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>3</v>
-      </c>
-      <c r="J128" t="n">
-        <v>3</v>
-      </c>
-      <c r="K128" t="n">
-        <v>3</v>
-      </c>
-      <c r="L128" t="n">
-        <v>3</v>
-      </c>
-      <c r="M128" t="n">
-        <v>38.06</v>
-      </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P128" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q128" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R128" t="inlineStr">
-        <is>
-          <t>CHEMBL1961876</t>
-        </is>
-      </c>
-      <c r="S128" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T128" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U128" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEB8510&gt;</t>
-        </is>
-      </c>
-      <c r="V128" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>CHEMBL505187</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>0</v>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>CCn1cc(-c2ccnc3[nH]ccc23)c(-c2cccc(NC(=O)Nc3ccc(OCc4ccccc4)cc3)c2)n1</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>CCn1cc(-c2ccnc3[nH]ccc23)c(-c2cccc(NC(=O)Nc3ccc(OCc4ccccc4)cc3)c2)n1</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G129" t="n">
-        <v>528.62</v>
-      </c>
-      <c r="H129" t="n">
-        <v>3</v>
-      </c>
-      <c r="I129" t="n">
-        <v>4</v>
-      </c>
-      <c r="J129" t="n">
-        <v>8</v>
-      </c>
-      <c r="K129" t="n">
-        <v>6</v>
-      </c>
-      <c r="L129" t="n">
-        <v>6</v>
-      </c>
-      <c r="M129" t="n">
-        <v>96.86</v>
-      </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O129" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P129" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q129" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R129" t="inlineStr">
-        <is>
-          <t>CHEMBL1961876</t>
-        </is>
-      </c>
-      <c r="S129" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T129" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U129" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002075FEB8F90&gt;</t>
-        </is>
-      </c>
-      <c r="V129" t="inlineStr">
         <is>
           <t>G2</t>
         </is>

--- a/F_dataset/DUD-E/AKT2/AKT2_preprocessing/AKT2_train.xlsx
+++ b/F_dataset/DUD-E/AKT2/AKT2_preprocessing/AKT2_train.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL207544</t>
+          <t>CHEMBL407504</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C#Cc1ncc(OC[C@@H](N)Cc2c[nH]c3ccccc23)cc1-c1ccc2cnccc2c1</t>
+          <t>NC1(c2ccc(Cl)cc2)CCN(c2ncnc3[nH]cnc23)CC1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C#Cc1ncc(OC[C@@H](N)Cc2c[nH]c3ccccc23)cc1-c1ccc2cnccc2c1</t>
+          <t>NC1(c2ccc(Cl)cc2)CCN(c2ncnc3[nH]cnc23)CC1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,25 +575,25 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>418.5</v>
+        <v>328.81</v>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>76.81999999999999</v>
+        <v>83.72</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DACE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323074270&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL162</t>
+          <t>CHEMBL375236</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(-c3cccnc3)c[nH]1)C(=O)N2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(-c3cccnc3)c[nH]1)C(=O)N2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,25 +643,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>466.54</v>
+        <v>345.36</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>69.45</v>
+        <v>112.9</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D8040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A3230745F0&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL407504</t>
+          <t>CHEMBL388739</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NC1(c2ccc(Cl)cc2)CCN(c2ncnc3[nH]cnc23)CC1</t>
+          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)c2cccnc2)c[nH]1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NC1(c2ccc(Cl)cc2)CCN(c2ncnc3[nH]cnc23)CC1</t>
+          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)c2cccnc2)c[nH]1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,17 +711,17 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>328.81</v>
+        <v>416.44</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
         <v>5</v>
       </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
       <c r="K4" t="n">
         <v>4</v>
       </c>
@@ -729,7 +729,7 @@
         <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>83.72</v>
+        <v>142</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DAC00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A3230746D0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL494088</t>
+          <t>CHEMBL536718</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCC3CCNC3)c21</t>
+          <t>CN(C)c1ccc(O)c(C(=O)c2ccc(C(=O)N[C@@H]3CCCNC[C@H]3NC(=O)c3ccncc3)cc2)c1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCC3CCNC3)c21</t>
+          <t>CN(C)c1ccc(O)c(C(=O)c2ccc(C(=O)N[C@@H]3CCCNC[C@H]3NC(=O)c3ccncc3)cc2)c1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,16 +779,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>411.47</v>
+        <v>501.59</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
@@ -797,7 +797,7 @@
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>137.14</v>
+        <v>123.66</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DAB20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323074890&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL593375</t>
+          <t>CHEMBL228133</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cc1occc1-c1nc(N)c(OC[C@@H](N)Cc2c[nH]c3ccccc23)cc1-c1cnc2[nH]nc(C)c2c1</t>
+          <t>Clc1ccc(C2(c3ccc(-c4ncnc5[nH]cnc45)cc3)CCNCC2)cc1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cc1occc1-c1nc(N)c(OC[C@@H](N)Cc2c[nH]c3ccccc23)cc1-c1cnc2[nH]nc(C)c2c1</t>
+          <t>Clc1ccc(C2(c3ccc(-c4ncnc5[nH]cnc45)cc3)CCNCC2)cc1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>493.57</v>
+        <v>389.89</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>144.66</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323074900&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL536718</t>
+          <t>CHEMBL1096634</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CN(C)c1ccc(O)c(C(=O)c2ccc(C(=O)N[C@@H]3CCCNC[C@H]3NC(=O)c3ccncc3)cc2)c1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(OC[C@H](N)c3ccccc3)cc21</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CN(C)c1ccc(O)c(C(=O)c2ccc(C(=O)N[C@@H]3CCCNC[C@H]3NC(=O)c3ccncc3)cc2)c1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(OC[C@H](N)c3ccccc3)cc21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>501.59</v>
+        <v>447.5</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
         <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>123.66</v>
+        <v>151.13</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323075150&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA7A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323074040&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL388395</t>
+          <t>CHEMBL388184</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CN(C)C1CCN(C(=O)c2c[nH]c(/C=C3\C(=O)Nc4ccc(NC(N)=O)cc43)c2)C1</t>
+          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCN3CCOCC3)c[nH]1)C(=O)N2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CN(C)C1CCN(C(=O)c2c[nH]c(/C=C3\C(=O)Nc4ccc(NC(N)=O)cc43)c2)C1</t>
+          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCN3CCOCC3)c[nH]1)C(=O)N2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>408.46</v>
+        <v>424.46</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
@@ -1069,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>123.56</v>
+        <v>141.58</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A3230740B0&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL262341</t>
+          <t>CHEMBL603197</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>O=C1N=CC=C2N=C(c3ccc(CN4CCC(c5n[nH]c(-c6ccccn6)n5)CC4)cc3)C(c3ccccc3)=CC12</t>
+          <t>Cc1n[nH]c2cnc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)nc12</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>O=C1N=CC=C2N=C(c3ccc(CN4CCC(c5n[nH]c(-c6ccccn6)n5)CC4)cc3)C(c3ccccc3)=CC12</t>
+          <t>Cc1n[nH]c2cnc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)nc12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>539.64</v>
+        <v>465.52</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
+        <v>7</v>
+      </c>
+      <c r="K10" t="n">
         <v>6</v>
       </c>
-      <c r="K10" t="n">
-        <v>7</v>
-      </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>99.48999999999999</v>
+        <v>131.53</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA3B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323074120&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL448926</t>
+          <t>CHEMBL388395</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3cnc(-n4ccnc4)nc3nc2-c2ccc(CN3CCC(c4nnc(-c5ccccn5)[nH]4)CC3)cc2)cc1</t>
+          <t>CN(C)C1CCN(C(=O)c2c[nH]c(/C=C3\C(=O)Nc4ccc(NC(N)=O)cc43)c2)C1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3cnc(-n4ccnc4)nc3nc2-c2ccc(CN3CCC(c4nnc(-c5ccccn5)[nH]4)CC3)cc2)cc1</t>
+          <t>CN(C)C1CCN(C(=O)c2c[nH]c(/C=C3\C(=O)Nc4ccc(NC(N)=O)cc43)c2)C1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>590.7</v>
+        <v>408.46</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>114.19</v>
+        <v>123.56</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D85F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323074190&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL594755</t>
+          <t>CHEMBL512135</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cc1occc1-c1nc(N)c(OC[C@@H](N)Cc2ccccc2)cc1-c1cnc2[nH]nc(C)c2n1</t>
+          <t>NCC(NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1)c1ccccc1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cc1occc1-c1nc(N)c(OC[C@@H](N)Cc2ccccc2)cc1-c1cnc2[nH]nc(C)c2n1</t>
+          <t>NCC(NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1)c1ccccc1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,25 +1255,25 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>455.52</v>
+        <v>441.35</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>141.76</v>
+        <v>83.8</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D93F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323074430&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL383541</t>
+          <t>CHEMBL594755</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(/C=C/c2ccncc2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>Cc1occc1-c1nc(N)c(OC[C@@H](N)Cc2ccccc2)cc1-c1cnc2[nH]nc(C)c2n1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(/C=C/c2ccncc2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>Cc1occc1-c1nc(N)c(OC[C@@H](N)Cc2ccccc2)cc1-c1cnc2[nH]nc(C)c2n1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,25 +1323,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>370.46</v>
+        <v>455.52</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
         <v>7</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>76.81999999999999</v>
+        <v>141.76</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D94D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A3230744A0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL536485</t>
+          <t>CHEMBL402199</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CC1(C)CCCNC1c1ccc(O)c(C(=O)c2ccc(C(=O)N[C@@H]3CCCNC[C@H]3NC(=O)c3ccncc3)cc2)c1F</t>
+          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)c(-c3ccccc3)cc12</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CC1(C)CCCNC1c1ccc(O)c(C(=O)c2ccc(C(=O)N[C@@H]3CCCNC[C@H]3NC(=O)c3ccncc3)cc2)c1F</t>
+          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)c(-c3ccccc3)cc12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,25 +1391,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>587.7</v>
+        <v>527.63</v>
       </c>
       <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" t="n">
         <v>5</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>7</v>
       </c>
-      <c r="J14" t="n">
-        <v>7</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5</v>
-      </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
-        <v>132.45</v>
+        <v>105.72</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323074580&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL369506</t>
+          <t>CHEMBL536485</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CC(C)CC1=NC(c2ccccc2)=C(c2ccc(CN3CCC(n4c(O)nc5ccccc54)CC3)cc2)NC1O</t>
+          <t>CC1(C)CCCNC1c1ccc(O)c(C(=O)c2ccc(C(=O)N[C@@H]3CCCNC[C@H]3NC(=O)c3ccncc3)cc2)c1F</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CC(C)CC1=NC(c2ccccc2)=C(c2ccc(CN3CCC(n4c(O)nc5ccccc54)CC3)cc2)NC1O</t>
+          <t>CC1(C)CCCNC1c1ccc(O)c(C(=O)c2ccc(C(=O)N[C@@H]3CCCNC[C@H]3NC(=O)c3ccncc3)cc2)c1F</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>535.6900000000001</v>
+        <v>587.7</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
         <v>7</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>85.91</v>
+        <v>132.45</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323074660&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL227605</t>
+          <t>CHEMBL369506</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NC(Cc1ccccc1)c1ccc(-c2ncnc3[nH]cnc23)cc1</t>
+          <t>CC(C)CC1=NC(c2ccccc2)=C(c2ccc(CN3CCC(n4c(O)nc5ccccc54)CC3)cc2)NC1O</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NC(Cc1ccccc1)c1ccc(-c2ncnc3[nH]cnc23)cc1</t>
+          <t>CC(C)CC1=NC(c2ccccc2)=C(c2ccc(CN3CCC(n4c(O)nc5ccccc54)CC3)cc2)NC1O</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>315.38</v>
+        <v>535.6900000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
         <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>80.48</v>
+        <v>85.91</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D95B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323074740&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL605326</t>
+          <t>CHEMBL180058</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NC1(C(=O)N2CCCC2c2ccccc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>Cn1nnc(-c2ccc3nc(-c4ccccc4)c(-c4ccc(CN5CCC(n6c(O)nc7ccccc76)CC5)cc4)nc3c2)n1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NC1(C(=O)N2CCCC2c2ccccc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>Cn1nnc(-c2ccc3nc(-c4ccccc4)c(-c4ccc(CN5CCC(n6c(O)nc7ccccc76)CC5)cc4)nc3c2)n1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>390.49</v>
+        <v>593.7</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>91.14</v>
+        <v>110.67</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323074820&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DAB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323074970&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL228652</t>
+          <t>CHEMBL228810</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NCc1cccc(-c2c[nH]c(/C=C3\C(=O)Nc4ccc(NC(N)=O)cc43)c2)c1</t>
+          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)C2CCN(C)CC2)c[nH]1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NCc1cccc(-c2c[nH]c(/C=C3\C(=O)Nc4ccc(NC(N)=O)cc43)c2)c1</t>
+          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)C2CCN(C)CC2)c[nH]1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>373.42</v>
+        <v>436.52</v>
       </c>
       <c r="H19" t="n">
         <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>126.03</v>
+        <v>132.35</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A3230749E0&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D99A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323074AC0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323074B30&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323074C80&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DAA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323074E40&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323074EB0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL494060</t>
+          <t>CHEMBL228811</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCCCNCCc3ccc(OC)cc3)c21</t>
+          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)C2CNCCN2)c[nH]1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCCCNCCc3ccc(OC)cc3)c21</t>
+          <t>C/C(=C1/C(=O)Nc2ccc(NC(N)=O)cc21)c1cc(CNC(=O)C2CNCCN2)c[nH]1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>519.61</v>
+        <v>423.48</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
         <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>146.37</v>
+        <v>153.17</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A3230751C0&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL259998</t>
+          <t>CHEMBL470598</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NC1(c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>NC[C@H](CC1CCCCC1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NC1(c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>NC[C@H](CC1CCCCC1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,16 +2207,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>327.82</v>
+        <v>461.43</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K26" t="n">
         <v>4</v>
@@ -2225,7 +2225,7 @@
         <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>70.83</v>
+        <v>83.8</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A3230752A0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL597793</t>
+          <t>CHEMBL494060</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NC1(COCc2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCCCNCCc3ccc(OC)cc3)c21</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NC1(COCc2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCCCNCCc3ccc(OC)cc3)c21</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>371.87</v>
+        <v>519.61</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K27" t="n">
         <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>80.06</v>
+        <v>146.37</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323075380&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL226712</t>
+          <t>CHEMBL506077</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NC(c1ccc(Cl)cc1)c1ccc(-c2ncnc3[nH]cnc23)cc1</t>
+          <t>Oc1nnc2c3cc(-c4ccccc4)c(-c4ccc(CN5CCC(c6n[nH]c(-c7ccccn7)n6)CC5)cc4)nc3ccn12</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NC(c1ccc(Cl)cc1)c1ccc(-c2ncnc3[nH]cnc23)cc1</t>
+          <t>Oc1nnc2c3cc(-c4ccccc4)c(-c4ccc(CN5CCC(c6n[nH]c(-c7ccccn7)n6)CC5)cc4)nc3ccn12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2343,25 +2343,25 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>335.8</v>
+        <v>579.67</v>
       </c>
       <c r="H28" t="n">
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M28" t="n">
-        <v>80.48</v>
+        <v>121.01</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3D9E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306FF40&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL593490</t>
+          <t>CHEMBL259998</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)cc12</t>
+          <t>NC1(c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)cc12</t>
+          <t>NC1(c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2411,25 +2411,25 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>463.54</v>
+        <v>327.82</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>105.75</v>
+        <v>70.83</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA0A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306F3E0&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL599448</t>
+          <t>CHEMBL597793</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NC1(C(=O)NCc2ccc(Cl)cc2)CCN(c2ccnc3[nH]ccc23)CC1</t>
+          <t>NC1(COCc2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NC1(C(=O)NCc2ccc(Cl)cc2)CCN(c2ccnc3[nH]ccc23)CC1</t>
+          <t>NC1(COCc2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2479,16 +2479,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>383.88</v>
+        <v>371.87</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
         <v>4</v>
@@ -2497,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="M30" t="n">
-        <v>87.04000000000001</v>
+        <v>80.06</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306F5A0&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL598013</t>
+          <t>CHEMBL593490</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NC1(Cc2ccc(Cl)cc2)CCN(c2ccnc3[nH]ncc23)CC1</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NC1(Cc2ccc(Cl)cc2)CCN(c2ccnc3[nH]ncc23)CC1</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2547,25 +2547,25 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>341.85</v>
+        <v>463.54</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
-        <v>70.83</v>
+        <v>105.75</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306F6F0&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL260463</t>
+          <t>CHEMBL599448</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NCC1(c2ccc(Cl)cc2)CCN(c2ccnc3[nH]ccc23)CC1</t>
+          <t>NC1(C(=O)NCc2ccc(Cl)cc2)CCN(c2ccnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NCC1(c2ccc(Cl)cc2)CCN(c2ccnc3[nH]ccc23)CC1</t>
+          <t>NC1(C(=O)NCc2ccc(Cl)cc2)CCN(c2ccnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2615,16 +2615,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>340.86</v>
+        <v>383.88</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
         <v>4</v>
@@ -2633,7 +2633,7 @@
         <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>57.94</v>
+        <v>87.04000000000001</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306FE60&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL446134</t>
+          <t>CHEMBL598013</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>O=C1NCCc2nc(-c3ccc(CN4CCC(c5nnc(-c6ccccn6)[nH]5)CC4)cc3)c(-c3ccccc3)cc21</t>
+          <t>NC1(Cc2ccc(Cl)cc2)CCN(c2ccnc3[nH]ncc23)CC1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>O=C1NCCc2nc(-c3ccc(CN4CCC(c5nnc(-c6ccccn6)[nH]5)CC4)cc3)c(-c3ccccc3)cc21</t>
+          <t>NC1(Cc2ccc(Cl)cc2)CCN(c2ccnc3[nH]ncc23)CC1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2683,25 +2683,25 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>541.66</v>
+        <v>341.85</v>
       </c>
       <c r="H33" t="n">
         <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>99.69</v>
+        <v>70.83</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306C350&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL498051</t>
+          <t>CHEMBL260463</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NC[C@H](Cc1ccncc1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
+          <t>NCC1(c2ccc(Cl)cc2)CCN(c2ccnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NC[C@H](Cc1ccncc1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
+          <t>NCC1(c2ccc(Cl)cc2)CCN(c2ccnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2751,25 +2751,25 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>456.37</v>
+        <v>340.86</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
         <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>96.69</v>
+        <v>57.94</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DA8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306E8F0&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL603244</t>
+          <t>CHEMBL254099</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NC1(CNC(=O)c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5nnc(-c6ccccn6)[nH]5)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NC1(CNC(=O)c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(c5nnc(-c6ccccn6)[nH]5)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2819,25 +2819,25 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>384.87</v>
+        <v>570.73</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M35" t="n">
-        <v>99.93000000000001</v>
+        <v>96.37</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DAC70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306CE40&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL270847</t>
+          <t>CHEMBL498051</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3ncc(-c4nnn[nH]4)cc3-c3ccccc3)cc2)CC1</t>
+          <t>NC[C@H](Cc1ccncc1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3ncc(-c4nnn[nH]4)cc3-c3ccccc3)cc2)CC1</t>
+          <t>NC[C@H](Cc1ccncc1)NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2887,25 +2887,25 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>528.62</v>
+        <v>456.37</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
         <v>6</v>
       </c>
       <c r="K36" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>108.38</v>
+        <v>96.69</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3DAE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306CEB0&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHEMBL182101</t>
+          <t>CHEMBL253693</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cn1nnnc1-c1cnc(-c2ccc(CN3CCC(n4c(O)nc5ccccc54)CC3)cc2)c(-c2ccccc2)c1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(n5ncc6c(N)ncnc65)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Cn1nnnc1-c1cnc(-c2ccc(CN3CCC(n4c(O)nc5ccccc54)CC3)cc2)c(-c2ccccc2)c1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(n5ncc6c(N)ncnc65)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2955,13 +2955,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>542.65</v>
+        <v>559.7</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J37" t="n">
         <v>6</v>
@@ -2973,7 +2973,7 @@
         <v>6</v>
       </c>
       <c r="M37" t="n">
-        <v>97.78</v>
+        <v>111.53</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC5F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306CF20&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMBL253457</t>
+          <t>CHEMBL603244</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(c5nc6ccc(F)cc6[nH]5)CC4)cc3)c(-c3ccccc3)cc12</t>
+          <t>NC1(CNC(=O)c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(c5nc6ccc(F)cc6[nH]5)CC4)cc3)c(-c3ccccc3)cc12</t>
+          <t>NC1(CNC(=O)c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3023,25 +3023,25 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>529.62</v>
+        <v>384.87</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>96.61</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306DC40&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL402579</t>
+          <t>CHEMBL252456</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Cc1nc2ccccc2n1C1CCN(Cc2ccc(-c3nc4ncnc(N)c4cc3-c3ccccc3)cc2)CC1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCC(=O)c4ccccc4N)cc3)nc2n1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Cc1nc2ccccc2n1C1CCN(Cc2ccc(-c3nc4ncnc(N)c4cc3-c3ccccc3)cc2)CC1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCC(=O)c4ccccc4N)cc3)nc2n1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3091,25 +3091,25 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>525.66</v>
+        <v>505.65</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J39" t="n">
+        <v>9</v>
+      </c>
+      <c r="K39" t="n">
         <v>5</v>
       </c>
-      <c r="K39" t="n">
-        <v>7</v>
-      </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M39" t="n">
-        <v>85.75</v>
+        <v>93.79000000000001</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306DCB0&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL178468</t>
+          <t>CHEMBL258844</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CC(C)Cc1nc(-c2ccccc2)c(-c2ccc(CN3CCC(n4c(O)nc5ccccc54)CC3)cc2)nc1O</t>
+          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4cc5nc[nH]c5cc4nc3-c3ccccc3)cc2)CC1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CC(C)Cc1nc(-c2ccccc2)c(-c2ccc(CN3CCC(n4c(O)nc5ccccc54)CC3)cc2)nc1O</t>
+          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4cc5nc[nH]c5cc4nc3-c3ccccc3)cc2)CC1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3159,25 +3159,25 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>533.6799999999999</v>
+        <v>551.65</v>
       </c>
       <c r="H40" t="n">
         <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
+        <v>5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>8</v>
+      </c>
+      <c r="L40" t="n">
         <v>7</v>
       </c>
-      <c r="K40" t="n">
-        <v>6</v>
-      </c>
-      <c r="L40" t="n">
-        <v>5</v>
-      </c>
       <c r="M40" t="n">
-        <v>87.3</v>
+        <v>95.48999999999999</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306DD20&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL252261</t>
+          <t>CHEMBL402579</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4n[nH]c(-c5ccccc5)n4)cc3)nc2n1</t>
+          <t>Cc1nc2ccccc2n1C1CCN(Cc2ccc(-c3nc4ncnc(N)c4cc3-c3ccccc3)cc2)CC1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4n[nH]c(-c5ccccc5)n4)cc3)nc2n1</t>
+          <t>Cc1nc2ccccc2n1C1CCN(Cc2ccc(-c3nc4ncnc(N)c4cc3-c3ccccc3)cc2)CC1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3227,25 +3227,25 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>529.67</v>
+        <v>525.66</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
+        <v>6</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5</v>
+      </c>
+      <c r="K41" t="n">
         <v>7</v>
-      </c>
-      <c r="J41" t="n">
-        <v>9</v>
-      </c>
-      <c r="K41" t="n">
-        <v>6</v>
       </c>
       <c r="L41" t="n">
         <v>6</v>
       </c>
       <c r="M41" t="n">
-        <v>92.27</v>
+        <v>85.75</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC7B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306E420&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL401622</t>
+          <t>CHEMBL252261</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3276,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Cn1nc(N)c2cc(-c3ccccc3)c(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)nc21</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4n[nH]c(-c5ccccc5)n4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Cn1nc(N)c2cc(-c3ccccc3)c(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)nc21</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4n[nH]c(-c5ccccc5)n4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3295,25 +3295,25 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>529.65</v>
+        <v>529.67</v>
       </c>
       <c r="H42" t="n">
         <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J42" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L42" t="n">
         <v>6</v>
       </c>
       <c r="M42" t="n">
-        <v>97.76000000000001</v>
+        <v>92.27</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -3324,7 +3324,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC4A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306E490&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHEMBL255360</t>
+          <t>CHEMBL401622</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(n5cnc6c(N)ncnc65)CC4)cc3)c(-c3ccccc3)cc12</t>
+          <t>Cn1nc(N)c2cc(-c3ccccc3)c(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)nc21</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Nc1ncnc2nc(-c3ccc(CN4CCC(n5cnc6c(N)ncnc65)CC4)cc3)c(-c3ccccc3)cc12</t>
+          <t>Cn1nc(N)c2cc(-c3ccccc3)c(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)nc21</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3363,13 +3363,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>528.62</v>
+        <v>529.65</v>
       </c>
       <c r="H43" t="n">
         <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
         <v>5</v>
@@ -3381,7 +3381,7 @@
         <v>6</v>
       </c>
       <c r="M43" t="n">
-        <v>137.55</v>
+        <v>97.76000000000001</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -3392,7 +3392,7 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306E650&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3404,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CHEMBL407733</t>
+          <t>CHEMBL252457</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3412,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4cc(-c5cccnc5)[nH]n4)CC3)cc2)cc1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(C(N)=O)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4cc(-c5cccnc5)[nH]n4)CC3)cc2)cc1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(C(N)=O)CC4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3431,25 +3431,25 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>522.66</v>
+        <v>469.61</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J44" t="n">
         <v>6</v>
       </c>
       <c r="K44" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>70.59</v>
+        <v>85</v>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
@@ -3460,7 +3460,7 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC6D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306EF80&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3472,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHEMBL252457</t>
+          <t>CHEMBL494089</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3480,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(C(N)=O)CC4)cc3)nc2n1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC[C@H]3CCCNC3)c21</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CN4CCC(C(N)=O)CC4)cc3)nc2n1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC[C@H]3CCCNC3)c21</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3495,29 +3495,29 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>469.61</v>
+        <v>425.49</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M45" t="n">
-        <v>85</v>
+        <v>137.14</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -3528,7 +3528,7 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306F060&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3596,7 +3596,7 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306F370&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3608,7 +3608,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL228749</t>
+          <t>CHEMBL522857</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3616,12 +3616,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCc3cnc[nH]3)c[nH]1)C(=O)N2</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC3CCNCC3)c21</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCc3cnc[nH]3)c[nH]1)C(=O)N2</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC3CCNCC3)c21</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3635,16 +3635,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>405.42</v>
+        <v>411.47</v>
       </c>
       <c r="H47" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K47" t="n">
         <v>4</v>
@@ -3653,7 +3653,7 @@
         <v>3</v>
       </c>
       <c r="M47" t="n">
-        <v>157.79</v>
+        <v>137.14</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -3664,7 +3664,7 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC9E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306F680&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3676,7 +3676,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHEMBL271091</t>
+          <t>CHEMBL228749</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3684,12 +3684,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4ccc(-c5nn[nH]n5)cc4nc3-c3ccccc3)cc2)CC1</t>
+          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCc3cnc[nH]3)c[nH]1)C(=O)N2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4ccc(-c5nn[nH]n5)cc4nc3-c3ccccc3)cc2)CC1</t>
+          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(C(=O)NCCc3cnc[nH]3)c[nH]1)C(=O)N2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3703,25 +3703,25 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>579.67</v>
+        <v>405.42</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I48" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J48" t="n">
         <v>6</v>
       </c>
       <c r="K48" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L48" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M48" t="n">
-        <v>121.27</v>
+        <v>157.79</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -3732,7 +3732,7 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306F7D0&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3744,7 +3744,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CHEMBL259968</t>
+          <t>CHEMBL271091</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3752,12 +3752,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3ccncc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
+          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4ccc(-c5nn[nH]n5)cc4nc3-c3ccccc3)cc2)CC1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3ccncc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
+          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4ccc(-c5nn[nH]n5)cc4nc3-c3ccccc3)cc2)CC1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3771,25 +3771,25 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>523.64</v>
+        <v>579.67</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J49" t="n">
         <v>6</v>
       </c>
       <c r="K49" t="n">
+        <v>8</v>
+      </c>
+      <c r="L49" t="n">
         <v>7</v>
       </c>
-      <c r="L49" t="n">
-        <v>6</v>
-      </c>
       <c r="M49" t="n">
-        <v>83.48</v>
+        <v>121.27</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -3800,7 +3800,7 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC0B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306F840&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -3812,7 +3812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CHEMBL2325737</t>
+          <t>CHEMBL259968</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3820,12 +3820,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NC1(C(=O)NC(CO)c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>c1ccc(-c2cc3ccncc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NC1(C(=O)NC(CO)c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
+          <t>c1ccc(-c2cc3ccncc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3835,66 +3835,40 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>414.9</v>
+        <v>523.64</v>
       </c>
       <c r="H50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>6</v>
       </c>
       <c r="J50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K50" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M50" t="n">
-        <v>120.16</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
-        <v>46</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>CHEMBL2330885</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant Akt2 (unknown origin) using 5-FAM-labeled peptide as substrate after 1 hr by caliper off-chip incubation mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>83.48</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306F920&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -3906,7 +3880,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CHEMBL493911</t>
+          <t>CHEMBL261540</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3914,12 +3888,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2cncc(OC3CCNCC3)c21</t>
+          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4cc(-c5ccncc5)[nH]n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2cncc(OC3CCNCC3)c21</t>
+          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4cc(-c5ccncc5)[nH]n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3929,66 +3903,40 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>329.36</v>
+        <v>522.66</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K51" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M51" t="n">
-        <v>116.91</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q51" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>CHEMBL1028093</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Inhibition of human AKT2</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>70.59</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A32306F990&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -4056,7 +4004,7 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FF060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A3230930D0&gt;</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -4124,7 +4072,7 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323092490&gt;</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -4136,7 +4084,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>C26421692</t>
+          <t>C44282538</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4144,12 +4092,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[NH3+]CCn1ncc2c(=O)n(Cc3ccc(Br)cc3)cnc21</t>
+          <t>Cc1c(Br)c(O)c(CCC[NH3+])c(C)c1[N+](=O)[O-]</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[NH3+]CCn1ncc2c(=O)n(Cc3ccc(Br)cc3)cnc21</t>
+          <t>Cc1c(Br)c(O)c(CCC[NH3+])c(C)c1[N+](=O)[O-]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4163,10 +4111,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>349.21</v>
+        <v>304.16</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
         <v>3</v>
@@ -4175,13 +4123,13 @@
         <v>4</v>
       </c>
       <c r="K54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
-        <v>80.34999999999999</v>
+        <v>91.01000000000001</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -4192,7 +4140,7 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FCB30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A3230920A0&gt;</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -4204,7 +4152,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>C44282538</t>
+          <t>C13651282</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4212,12 +4160,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Cc1c(Br)c(O)c(CCC[NH3+])c(C)c1[N+](=O)[O-]</t>
+          <t>CCN(CC)c1ccc(N2CCN(C(=O)[C@]3(C)CCc4c(C)c(O)c(C)c(C)c4O3)CC2)[nH+]c1N(CC)CC</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Cc1c(Br)c(O)c(CCC[NH3+])c(C)c1[N+](=O)[O-]</t>
+          <t>CCN(CC)c1ccc(N2CCN(C(=O)[C@]3(C)CCc4c(C)c(O)c(C)c(C)c4O3)CC2)[nH+]c1N(CC)CC</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4231,25 +4179,25 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>304.16</v>
+        <v>538.76</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J55" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
-        <v>91.01000000000001</v>
+        <v>73.63</v>
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
@@ -4260,7 +4208,7 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FCBA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323092570&gt;</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -4272,7 +4220,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>C13651282</t>
+          <t>C39528088</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4280,12 +4228,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CCN(CC)c1ccc(N2CCN(C(=O)[C@]3(C)CCc4c(C)c(O)c(C)c(C)c4O3)CC2)[nH+]c1N(CC)CC</t>
+          <t>O=S(=O)(Oc1ccccc1)[C@H]1CN(c2ccc(Cc3ccccc3)cc2Cc2ccccc2)CC[NH2+]1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>CCN(CC)c1ccc(N2CCN(C(=O)[C@]3(C)CCc4c(C)c(O)c(C)c(C)c4O3)CC2)[nH+]c1N(CC)CC</t>
+          <t>O=S(=O)(Oc1ccccc1)[C@H]1CN(c2ccc(Cc3ccccc3)cc2Cc2ccccc2)CC[NH2+]1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4299,25 +4247,25 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>538.76</v>
+        <v>499.66</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J56" t="n">
         <v>8</v>
       </c>
       <c r="K56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>73.63</v>
+        <v>63.22</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -4328,7 +4276,7 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323090B30&gt;</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -4340,7 +4288,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>C39528088</t>
+          <t>C40148097</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4348,12 +4296,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>O=S(=O)(Oc1ccccc1)[C@H]1CN(c2ccc(Cc3ccccc3)cc2Cc2ccccc2)CC[NH2+]1</t>
+          <t>CNC(=S)N1N=C([C@H]2C(=O)[NH+]=c3ccc(Cl)cc3=C2c2ccccc2)C[C@@H]1c1ccccc1F</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>O=S(=O)(Oc1ccccc1)[C@H]1CN(c2ccc(Cc3ccccc3)cc2Cc2ccccc2)CC[NH2+]1</t>
+          <t>CNC(=S)N1N=C([C@H]2C(=O)[NH+]=c3ccc(Cl)cc3=C2c2ccccc2)C[C@@H]1c1ccccc1F</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4367,25 +4315,25 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>499.66</v>
+        <v>492</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
         <v>4</v>
       </c>
       <c r="J57" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K57" t="n">
         <v>5</v>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>63.22</v>
+        <v>58.67</v>
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -4396,7 +4344,7 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD1C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323092B20&gt;</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -4464,7 +4412,7 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FDFC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A3230936F0&gt;</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -4476,7 +4424,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>C63280025</t>
+          <t>C05813804</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -4484,12 +4432,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>O=C(CNC(=O)[C@@H]1C=c2ccccc2=[NH+]1)N[C@H]1Nc2ccccc2S1</t>
+          <t>O=[N+]([O-])c1ccc([C@@H](Nc2[nH+]cccc2O)c2ccc3cccnc3c2O)cc1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>O=C(CNC(=O)[C@@H]1C=c2ccccc2=[NH+]1)N[C@H]1Nc2ccccc2S1</t>
+          <t>O=[N+]([O-])c1ccc([C@@H](Nc2[nH+]cccc2O)c2ccc3cccnc3c2O)cc1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4503,25 +4451,25 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>353.43</v>
+        <v>389.39</v>
       </c>
       <c r="H59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I59" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K59" t="n">
         <v>4</v>
       </c>
       <c r="L59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>84.2</v>
+        <v>122.66</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -4532,7 +4480,7 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FECE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A3230929D0&gt;</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -4544,7 +4492,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>C67126209</t>
+          <t>C63280025</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -4552,12 +4500,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>NC(=O)C1CCN(C(=O)CCCC[C@H]2SC[C@H]3NC(=O)N[C@H]32)CC1</t>
+          <t>O=C(CNC(=O)[C@@H]1C=c2ccccc2=[NH+]1)N[C@H]1Nc2ccccc2S1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NC(=O)C1CCN(C(=O)CCCC[C@H]2SC[C@H]3NC(=O)N[C@H]32)CC1</t>
+          <t>O=C(CNC(=O)[C@@H]1C=c2ccccc2=[NH+]1)N[C@H]1Nc2ccccc2S1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4571,25 +4519,25 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>354.48</v>
+        <v>353.43</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I60" t="n">
         <v>4</v>
       </c>
       <c r="J60" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M60" t="n">
-        <v>104.53</v>
+        <v>84.2</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -4600,7 +4548,7 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FED50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323092F10&gt;</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -4668,7 +4616,7 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FEDC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323093530&gt;</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -4736,7 +4684,7 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FEF80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A3230938B0&gt;</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -4804,7 +4752,7 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC3C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323091FC0&gt;</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -4872,7 +4820,7 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FDAF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323090120&gt;</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -4940,7 +4888,7 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FDF50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323092A40&gt;</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -4952,7 +4900,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>C15771457</t>
+          <t>C65381931</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -4960,12 +4908,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>C[C@H](c1ccccc1)[C@H]([NH2+][C@@H]([C@@H](C)c1ccccc1)n1nnc2ccccc21)n1nnc2ccccc21</t>
+          <t>Cc1ccc2c(c1)c(CNc1nc(C)[nH+]c3c1CC[NH2+]CC3)nn2C</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>C[C@@H](c1ccccc1)[C@H]([NH2+][C@@H]([C@H](C)c1ccccc1)n1nnc2ccccc21)n1nnc2ccccc21</t>
+          <t>Cc1ccc2c(c1)c(CNc1nc(C)[nH+]c3c1CC[NH2+]CC3)nn2C</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4979,25 +4927,25 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>488.62</v>
+        <v>338.46</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L66" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M66" t="n">
-        <v>78.03</v>
+        <v>73.48999999999999</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -5008,7 +4956,7 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323091150&gt;</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -5020,7 +4968,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>C10658655</t>
+          <t>C15771457</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -5028,12 +4976,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Cc1sc2nc([C@@H](C)Sc3nc(N)cc(N)n3)nc(N)c2c1C</t>
+          <t>C[C@H](c1ccccc1)[C@H]([NH2+][C@@H]([C@@H](C)c1ccccc1)n1nnc2ccccc21)n1nnc2ccccc21</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Cc1sc2nc([C@@H](C)Sc3nc(N)cc(N)n3)nc(N)c2c1C</t>
+          <t>C[C@@H](c1ccccc1)[C@H]([NH2+][C@@H]([C@H](C)c1ccccc1)n1nnc2ccccc21)n1nnc2ccccc21</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -5047,25 +4995,25 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>347.47</v>
+        <v>488.62</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
+        <v>4</v>
+      </c>
+      <c r="J67" t="n">
         <v>8</v>
       </c>
-      <c r="J67" t="n">
-        <v>3</v>
-      </c>
       <c r="K67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M67" t="n">
-        <v>129.62</v>
+        <v>78.03</v>
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
@@ -5076,7 +5024,7 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE0A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A323093300&gt;</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -5088,7 +5036,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>C01711862</t>
+          <t>C39111964</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5096,12 +5044,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(=C2CCCCC2)N1</t>
+          <t>O[C@@H]1C[C@H]2C[C@@H](O)C(F)(F)[C@H]2O1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(=C2CCCCC2)N1</t>
+          <t>O[C@@H]1C[C@H]2C[C@@H](O)C(F)(F)[C@H]2O1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5115,13 +5063,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>180.21</v>
+        <v>180.15</v>
       </c>
       <c r="H68" t="n">
         <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -5133,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>58.2</v>
+        <v>49.69</v>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
@@ -5144,7 +5092,7 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F97CC80&gt;</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -5156,7 +5104,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>C39111964</t>
+          <t>C44832889</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -5164,12 +5112,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>O[C@@H]1C[C@H]2C[C@@H](O)C(F)(F)[C@H]2O1</t>
+          <t>CC(C)[C@@H](C(=O)N(C)C)C(N)=S</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>O[C@@H]1C[C@H]2C[C@@H](O)C(F)(F)[C@H]2O1</t>
+          <t>CC(C)[C@@H](C(=O)N(C)C)C(N)=S</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5183,25 +5131,25 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>180.15</v>
+        <v>188.3</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>49.69</v>
+        <v>46.33</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -5212,7 +5160,7 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F97CCF0&gt;</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -5224,7 +5172,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>C44832889</t>
+          <t>C45072164</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -5232,12 +5180,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CC(C)[C@@H](C(=O)N(C)C)C(N)=S</t>
+          <t>O=C1CC[C@]23[C@@H](CC[C@@H]12)C[C@H](O)[C@@H]3O</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>CC(C)[C@@H](C(=O)N(C)C)C(N)=S</t>
+          <t>O=C1CC[C@]23[C@@H](CC[C@@H]12)C[C@H](O)[C@@H]3O</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5251,25 +5199,25 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>188.3</v>
+        <v>196.25</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
         <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>46.33</v>
+        <v>57.53</v>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -5280,7 +5228,7 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F97CD60&gt;</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -5292,7 +5240,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>C45072164</t>
+          <t>C13692037</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5300,12 +5248,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>O=C1CC[C@]23[C@@H](CC[C@@H]12)C[C@H](O)[C@@H]3O</t>
+          <t>NC1=C(c2nc3ccccc3s2)C(=O)CN1/N=C/c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>O=C1CC[C@]23[C@@H](CC[C@@H]12)C[C@H](O)[C@@H]3O</t>
+          <t>NC1=C(c2nc3ccccc3s2)C(=O)CN1/N=C/c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5319,25 +5267,25 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>196.25</v>
+        <v>350.4</v>
       </c>
       <c r="H71" t="n">
         <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M71" t="n">
-        <v>57.53</v>
+        <v>91.81</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -5348,7 +5296,7 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F97CDD0&gt;</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -5360,7 +5308,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>C13692037</t>
+          <t>C39342451</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -5368,12 +5316,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>NC1=C(c2nc3ccccc3s2)C(=O)CN1/N=C/c1ccc(O)cc1</t>
+          <t>N#CC1=C(N)OC2=NC(=O)NC(=O)[C@@H]2[C@@H]1c1cccc(Cl)c1Cl</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NC1=C(c2nc3ccccc3s2)C(=O)CN1/N=C/c1ccc(O)cc1</t>
+          <t>N#CC1=C(N)OC2=NC(=O)NC(=O)[C@@H]2[C@@H]1c1cccc(Cl)c1Cl</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5387,7 +5335,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>350.4</v>
+        <v>351.15</v>
       </c>
       <c r="H72" t="n">
         <v>2</v>
@@ -5396,16 +5344,16 @@
         <v>5</v>
       </c>
       <c r="J72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>91.81</v>
+        <v>117.57</v>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -5416,7 +5364,7 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F97CE40&gt;</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
@@ -5428,7 +5376,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>C39342451</t>
+          <t>C28823511</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5436,12 +5384,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>N#CC1=C(N)OC2=NC(=O)NC(=O)[C@@H]2[C@@H]1c1cccc(Cl)c1Cl</t>
+          <t>COc1c(O)ccc2c1C1=C(/C(=C/c3cccc(-c4cccnc4)c3)O2)[C@H]2C(C)=CC(C)(C)[NH2+][C@@H]2C=C1</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>N#CC1=C(N)OC2=NC(=O)NC(=O)[C@@H]2[C@@H]1c1cccc(Cl)c1Cl</t>
+          <t>COc1c(O)ccc2c1C1=C(/C(=C/c3cccc(-c4cccnc4)c3)O2)[C@H]2C(C)=CC(C)(C)[NH2+][C@@H]2C=C1</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5455,25 +5403,25 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>351.15</v>
+        <v>491.61</v>
       </c>
       <c r="H73" t="n">
         <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K73" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M73" t="n">
-        <v>117.57</v>
+        <v>68.19</v>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -5484,7 +5432,7 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F97CF20&gt;</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -5496,7 +5444,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>C28823511</t>
+          <t>C43741012</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5504,12 +5452,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>COc1c(O)ccc2c1C1=C(/C(=C/c3cccc(-c4cccnc4)c3)O2)[C@H]2C(C)=CC(C)(C)[NH2+][C@@H]2C=C1</t>
+          <t>C[C@@]12CCC3(CC1=CC[C@H]1[C@H]2CC[C@]2(C)[C@@H]1CC[C@@]2(O)C/[NH+]=C/c1cc(Cl)cc(Cl)c1O)OCCO3</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>COc1c(O)ccc2c1C1=C(/C(=C/c3cccc(-c4cccnc4)c3)O2)[C@H]2C(C)=CC(C)(C)[NH2+][C@@H]2C=C1</t>
+          <t>C[C@@]12CCC3(CC1=CC[C@H]1[C@H]2CC[C@]2(C)[C@@H]1CC[C@@]2(O)C/[NH+]=C/c1cc(Cl)cc(Cl)c1O)OCCO3</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5523,10 +5471,10 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>491.61</v>
+        <v>535.53</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I74" t="n">
         <v>4</v>
@@ -5538,10 +5486,10 @@
         <v>6</v>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M74" t="n">
-        <v>68.19</v>
+        <v>72.89</v>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -5552,7 +5500,7 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FEC00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F97CF90&gt;</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
@@ -5564,7 +5512,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>C43741012</t>
+          <t>C49106360</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5572,12 +5520,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>C[C@@]12CCC3(CC1=CC[C@H]1[C@H]2CC[C@]2(C)[C@@H]1CC[C@@]2(O)C/[NH+]=C/c1cc(Cl)cc(Cl)c1O)OCCO3</t>
+          <t>Cc1[nH]/c(=N\S(=O)(=O)c2ccc(C#CC[NH3+])cc2)sc1C</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>C[C@@]12CCC3(CC1=CC[C@H]1[C@H]2CC[C@]2(C)[C@@H]1CC[C@@]2(O)C/[NH+]=C/c1cc(Cl)cc(Cl)c1O)OCCO3</t>
+          <t>Cc1[nH]/c(=N\S(=O)(=O)c2ccc(C#CC[NH3+])cc2)sc1C</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5591,25 +5539,25 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>535.53</v>
+        <v>322.44</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K75" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M75" t="n">
-        <v>72.89</v>
+        <v>89.93000000000001</v>
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
@@ -5620,7 +5568,7 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FCDD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F97D000&gt;</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
@@ -5632,7 +5580,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>C49106360</t>
+          <t>C05302065</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5640,12 +5588,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Cc1[nH]/c(=N\S(=O)(=O)c2ccc(C#CC[NH3+])cc2)sc1C</t>
+          <t>CC(CO)(CO)[NH2+]Cc1cc2cccc3ccc4cccc1c4c32</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Cc1[nH]/c(=N\S(=O)(=O)c2ccc(C#CC[NH3+])cc2)sc1C</t>
+          <t>CC(CO)(CO)[NH2+]Cc1cc2cccc3ccc4cccc1c4c32</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5659,25 +5607,25 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>322.44</v>
+        <v>320.41</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76" t="n">
         <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M76" t="n">
-        <v>89.93000000000001</v>
+        <v>57.07</v>
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -5688,7 +5636,7 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F97D070&gt;</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
@@ -5700,7 +5648,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>C05302065</t>
+          <t>C40757444</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5708,12 +5656,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CC(CO)(CO)[NH2+]Cc1cc2cccc3ccc4cccc1c4c32</t>
+          <t>Cc1ccccc1Nc1[nH+]cnc(NNc2ccccc2)c1N</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>CC(CO)(CO)[NH2+]Cc1cc2cccc3ccc4cccc1c4c32</t>
+          <t>Cc1ccccc1Nc1[nH+]cnc(NNc2ccccc2)c1N</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5727,25 +5675,25 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>320.41</v>
+        <v>307.38</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J77" t="n">
         <v>5</v>
       </c>
       <c r="K77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M77" t="n">
-        <v>57.07</v>
+        <v>89.14</v>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -5756,7 +5704,7 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FEB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F97D0E0&gt;</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
@@ -5824,7 +5772,7 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FCC10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F97D150&gt;</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
@@ -5836,7 +5784,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>C66243711</t>
+          <t>C01827392</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -5844,12 +5792,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CC(C)(CN/C(N)=[NH+]/Cc1ccco1)c1ccc2c(c1)OCCO2</t>
+          <t>COc1ccc(-n2c(SCC(=O)Nc3cccc(Cl)c3C)nc3sc4c(c3c2=O)CCCC4)cc1</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>CC(C)(CN/C(N)=[NH+]/Cc1ccco1)c1ccc2c(c1)OCCO2</t>
+          <t>COc1ccc(-n2c(SCC(=O)Nc3cccc(Cl)c3C)nc3sc4c(c3c2=O)CCCC4)cc1</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5863,25 +5811,25 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>330.41</v>
+        <v>526.08</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>5</v>
       </c>
       <c r="J79" t="n">
+        <v>6</v>
+      </c>
+      <c r="K79" t="n">
         <v>5</v>
       </c>
-      <c r="K79" t="n">
-        <v>3</v>
-      </c>
       <c r="L79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M79" t="n">
-        <v>83.62</v>
+        <v>73.22</v>
       </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -5892,7 +5840,7 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FDD20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F97D460&gt;</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
@@ -5904,7 +5852,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>C27204622</t>
+          <t>C66243711</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -5912,12 +5860,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Oc1ccc([C@H]2Sc3cc(O)ccc3O[C@H]2c2ccc(C3=CC[NH2+]CC3)cc2)cc1</t>
+          <t>CC(C)(CN/C(N)=[NH+]/Cc1ccco1)c1ccc2c(c1)OCCO2</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Oc1ccc([C@H]2Sc3cc(O)ccc3O[C@H]2c2ccc(C3=CC[NH2+]CC3)cc2)cc1</t>
+          <t>CC(C)(CN/C(N)=[NH+]/Cc1ccco1)c1ccc2c(c1)OCCO2</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5931,25 +5879,25 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>418.54</v>
+        <v>330.41</v>
       </c>
       <c r="H80" t="n">
         <v>3</v>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M80" t="n">
-        <v>66.3</v>
+        <v>83.62</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -5960,7 +5908,7 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD5B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F95A8F0&gt;</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -5972,7 +5920,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>C35145045</t>
+          <t>C39305635</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -5980,12 +5928,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>[H]/N=C1\N=C(N[C@H](O)C(Cl)(Cl)Cl)N[C@@H](C(Cl)(Cl)Cl)O1</t>
+          <t>C[C@@H]1NN(C)C=C1[C@@H](C)[NH2+]Cc1cc(-c2ccc(F)cc2)[nH]n1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>[H]/N=C1\N=C(N[C@H](O)C(Cl)(Cl)Cl)N[C@@H](C(Cl)(Cl)Cl)O1</t>
+          <t>C[C@@H]1NN(C)C=C1[C@@H](C)[NH2+]Cc1cc(-c2ccc(F)cc2)[nH]n1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5999,25 +5947,25 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>378.86</v>
+        <v>316.4</v>
       </c>
       <c r="H81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M81" t="n">
-        <v>89.73</v>
+        <v>60.56</v>
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -6028,7 +5976,7 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F95A7A0&gt;</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
@@ -6040,7 +5988,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>C31159486</t>
+          <t>C27204622</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -6048,12 +5996,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>C=C1[C@@H](O)[C@H](O)[C@]2(C[C@@H]3C(C)=CC[C@H]4[C@@](C)(CO)CCC[C@@]34C)O[C@@H]2[C@H]1O</t>
+          <t>Oc1ccc([C@H]2Sc3cc(O)ccc3O[C@H]2c2ccc(C3=CC[NH2+]CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>C=C1[C@H](O)[C@H]2O[C@@]2(C[C@@H]2C(C)=CC[C@H]3[C@@](C)(CO)CCC[C@@]23C)[C@@H](O)[C@@H]1O</t>
+          <t>Oc1ccc([C@H]2Sc3cc(O)ccc3O[C@H]2c2ccc(C3=CC[NH2+]CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -6067,25 +6015,25 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>378.51</v>
+        <v>418.54</v>
       </c>
       <c r="H82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I82" t="n">
+        <v>4</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3</v>
+      </c>
+      <c r="K82" t="n">
         <v>5</v>
       </c>
-      <c r="J82" t="n">
-        <v>3</v>
-      </c>
-      <c r="K82" t="n">
-        <v>4</v>
-      </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M82" t="n">
-        <v>93.45</v>
+        <v>66.3</v>
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
@@ -6096,7 +6044,7 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F95A6C0&gt;</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
@@ -6108,7 +6056,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>C09970486</t>
+          <t>C35145045</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -6116,12 +6064,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CC(C)S[C@]1(C)O[C@](C)(CO)[C@@](C)(O)[C@@](C)(O)[C@@]1(C)O</t>
+          <t>[H]/N=C1\N=C(N[C@H](O)C(Cl)(Cl)Cl)N[C@@H](C(Cl)(Cl)Cl)O1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>CC(C)S[C@]1(C)O[C@](C)(CO)[C@@](C)(O)[C@@](C)(O)[C@@]1(C)O</t>
+          <t>[H]/N=C1\N=C(N[C@H](O)C(Cl)(Cl)Cl)N[C@@H](C(Cl)(Cl)Cl)O1</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -6135,16 +6083,16 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>308.44</v>
+        <v>378.86</v>
       </c>
       <c r="H83" t="n">
         <v>4</v>
       </c>
       <c r="I83" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
         <v>1</v>
@@ -6153,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>90.15000000000001</v>
+        <v>89.73</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -6164,7 +6112,7 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE7A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F95A650&gt;</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
@@ -6176,7 +6124,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>C43415096</t>
+          <t>C31159486</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -6184,12 +6132,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>N#Cc1cc(N)c(OCC(N)=O)c(I)c1</t>
+          <t>C=C1[C@@H](O)[C@H](O)[C@]2(C[C@@H]3C(C)=CC[C@H]4[C@@](C)(CO)CCC[C@@]34C)O[C@@H]2[C@H]1O</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>N#Cc1cc(N)c(OCC(N)=O)c(I)c1</t>
+          <t>C=C1[C@H](O)[C@H]2O[C@@]2(C[C@@H]2C(C)=CC[C@H]3[C@@](C)(CO)CCC[C@@]23C)[C@@H](O)[C@@H]1O</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -6203,25 +6151,25 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>317.09</v>
+        <v>378.51</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J84" t="n">
         <v>3</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>102.13</v>
+        <v>93.45</v>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -6232,7 +6180,7 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FCCF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F95A5E0&gt;</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
@@ -6244,7 +6192,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>C62953430</t>
+          <t>C09970486</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -6252,12 +6200,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Nc1cc(N2CCC3(CCCC3)CC2)cc(S(N)(=O)=O)c1</t>
+          <t>CC(C)S[C@]1(C)O[C@](C)(CO)[C@@](C)(O)[C@@](C)(O)[C@@]1(C)O</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Nc1cc(N2CCC3(CCCC3)CC2)cc(S(N)(=O)=O)c1</t>
+          <t>CC(C)S[C@]1(C)O[C@](C)(CO)[C@@](C)(O)[C@@](C)(O)[C@@]1(C)O</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -6271,25 +6219,25 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>309.44</v>
+        <v>308.44</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>89.42</v>
+        <v>90.15000000000001</v>
       </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
@@ -6300,7 +6248,7 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F95A570&gt;</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
@@ -6312,7 +6260,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>C43547990</t>
+          <t>C43415096</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6320,12 +6268,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>COCCNC(=O)CC[C@@]12CC[C@](C)(O)C[C@H]1C(C)(C)C[C@@H]2[NH2+]C1CCOCC1</t>
+          <t>N#Cc1cc(N)c(OCC(N)=O)c(I)c1</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>COCCNC(=O)CC[C@@]12CC[C@](C)(O)C[C@H]1C(C)(C)C[C@@H]2[NH2+]C1CCOCC1</t>
+          <t>N#Cc1cc(N)c(OCC(N)=O)c(I)c1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -6339,25 +6287,25 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>411.61</v>
+        <v>317.09</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
         <v>4</v>
       </c>
       <c r="J86" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" t="n">
-        <v>84.40000000000001</v>
+        <v>102.13</v>
       </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
@@ -6368,7 +6316,7 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD7E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F95A420&gt;</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -6380,7 +6328,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>C11730929</t>
+          <t>C62953430</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6388,12 +6336,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>C[C@@H](O)C[NH+]1Cc2cccc(N)c2C1</t>
+          <t>Nc1cc(N2CCC3(CCCC3)CC2)cc(S(N)(=O)=O)c1</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>C[C@@H](O)C[NH+]1Cc2cccc(N)c2C1</t>
+          <t>Nc1cc(N2CCC3(CCCC3)CC2)cc(S(N)(=O)=O)c1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -6407,25 +6355,25 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>193.27</v>
+        <v>309.44</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J87" t="n">
         <v>2</v>
       </c>
       <c r="K87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
       <c r="M87" t="n">
-        <v>50.69</v>
+        <v>89.42</v>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -6436,7 +6384,7 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD9A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F95A2D0&gt;</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
@@ -6448,7 +6396,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>C63152764</t>
+          <t>C43547990</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -6456,12 +6404,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Nc1c[nH+]ccc1NCc1ccsc1</t>
+          <t>COCCNC(=O)CC[C@@]12CC[C@](C)(O)C[C@H]1C(C)(C)C[C@@H]2[NH2+]C1CCOCC1</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Nc1c[nH+]ccc1NCc1ccsc1</t>
+          <t>COCCNC(=O)CC[C@@]12CC[C@](C)(O)C[C@H]1C(C)(C)C[C@@H]2[NH2+]C1CCOCC1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6475,25 +6423,25 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>206.29</v>
+        <v>411.61</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J88" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>52.19</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -6504,7 +6452,7 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FDD90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F95A180&gt;</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
@@ -6516,7 +6464,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>C13999875</t>
+          <t>C63152764</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6524,12 +6472,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>O=C([O-])[C@@H]1CSC2([NH2+]1)[C@@H]1CCC[C@H]2C[NH2+]C1</t>
+          <t>Nc1c[nH+]ccc1NCc1ccsc1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>O=C([O-])[C@@H]1CSC2([NH2+]1)[C@H]1CCC[C@@H]2C[NH2+]C1</t>
+          <t>Nc1c[nH+]ccc1NCc1ccsc1</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6543,25 +6491,25 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>243.35</v>
+        <v>206.29</v>
       </c>
       <c r="H89" t="n">
         <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M89" t="n">
-        <v>73.34999999999999</v>
+        <v>52.19</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -6572,7 +6520,7 @@
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FCA50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F959EE0&gt;</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
@@ -6584,7 +6532,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>C43425014</t>
+          <t>C13999875</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -6592,12 +6540,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>[NH3+]C[C@@H](O)CN1CCO[C@H]2CCCC[C@H]21</t>
+          <t>O=C([O-])[C@@H]1CSC2([NH2+]1)[C@@H]1CCC[C@H]2C[NH2+]C1</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>[NH3+]C[C@@H](O)CN1CCO[C@H]2CCCC[C@H]21</t>
+          <t>O=C([O-])[C@@H]1CSC2([NH2+]1)[C@H]1CCC[C@@H]2C[NH2+]C1</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6611,7 +6559,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>215.32</v>
+        <v>243.35</v>
       </c>
       <c r="H90" t="n">
         <v>2</v>
@@ -6620,16 +6568,16 @@
         <v>3</v>
       </c>
       <c r="J90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>60.34</v>
+        <v>73.34999999999999</v>
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
@@ -6640,7 +6588,7 @@
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FCAC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F959E00&gt;</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
@@ -6652,7 +6600,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>C55127321</t>
+          <t>C43425014</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -6660,12 +6608,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCC[C@@H](C(=O)N2CCC[C@H](O)C2)[C@@H]1[NH3+]</t>
+          <t>[NH3+]C[C@@H](O)CN1CCO[C@H]2CCCC[C@H]21</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCC[C@@H](C(=O)N2CCC[C@H](O)C2)[C@@H]1[NH3+]</t>
+          <t>[NH3+]C[C@@H](O)CN1CCO[C@H]2CCCC[C@H]21</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -6679,16 +6627,16 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>241.35</v>
+        <v>215.32</v>
       </c>
       <c r="H91" t="n">
         <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K91" t="n">
         <v>2</v>
@@ -6697,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>68.18000000000001</v>
+        <v>60.34</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -6708,7 +6656,7 @@
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F959CB0&gt;</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
@@ -6720,7 +6668,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>C48347270</t>
+          <t>C55127321</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -6728,12 +6676,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CNC(=O)NC(=O)C[NH+]1CCC(CO)CC1</t>
+          <t>C[C@@H]1CCC[C@@H](C(=O)N2CCC[C@H](O)C2)[C@@H]1[NH3+]</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>CNC(=O)NC(=O)C[NH+]1CCC(CO)CC1</t>
+          <t>C[C@@H]1CCC[C@@H](C(=O)N2CCC[C@H](O)C2)[C@@H]1[NH3+]</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -6747,25 +6695,25 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>230.29</v>
+        <v>241.35</v>
       </c>
       <c r="H92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>82.87</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
@@ -6776,7 +6724,7 @@
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F959C40&gt;</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
@@ -6788,7 +6736,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>C51360541</t>
+          <t>C48347270</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -6796,12 +6744,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>O=c1[nH]nc(N2CCC[C@H]2[C@@H]2CCC[NH2+]2)c(=O)[nH]1</t>
+          <t>CNC(=O)NC(=O)C[NH+]1CCC(CO)CC1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>O=c1[nH]nc(N2CCC[C@H]2[C@@H]2CCC[NH2+]2)c(=O)[nH]1</t>
+          <t>CNC(=O)NC(=O)C[NH+]1CCC(CO)CC1</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -6815,25 +6763,25 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>252.3</v>
+        <v>230.29</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>98.45999999999999</v>
+        <v>82.87</v>
       </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
@@ -6844,7 +6792,7 @@
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F959BD0&gt;</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
@@ -6856,7 +6804,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>C28525091</t>
+          <t>C51360541</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -6864,12 +6812,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>N#Cc1ccc(NCC(F)(F)c2ccccn2)[n+]([O-])c1C[C@H](O)NCc1ccccc1C[NH3+]</t>
+          <t>O=c1[nH]nc(N2CCC[C@H]2[C@@H]2CCC[NH2+]2)c(=O)[nH]1</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>N#Cc1ccc(NCC(F)(F)c2ccccn2)[n+]([O-])c1C[C@H](O)NCc1ccccc1C[NH3+]</t>
+          <t>O=c1[nH]nc(N2CCC[C@H]2[C@@H]2CCC[NH2+]2)c(=O)[nH]1</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -6883,25 +6831,25 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>455.49</v>
+        <v>252.3</v>
       </c>
       <c r="H94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I94" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J94" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K94" t="n">
         <v>3</v>
       </c>
       <c r="L94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M94" t="n">
-        <v>135.55</v>
+        <v>98.45999999999999</v>
       </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
@@ -6912,7 +6860,7 @@
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F959B60&gt;</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
@@ -6924,7 +6872,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>C65739441</t>
+          <t>C28525091</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -6932,12 +6880,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CC[C@H]1C[C@@H](C(=O)N[C@@H]([C@H]2O[C@@H](SC)[C@@H](O)[C@@H](O)[C@H]2O)[C@@H](C)Cl)[NH+](C)C1</t>
+          <t>N#Cc1ccc(NCC(F)(F)c2ccccn2)[n+]([O-])c1C[C@H](O)NCc1ccccc1C[NH3+]</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>CC[C@H]1C[C@@H](C(=O)N[C@H]([C@@H](C)Cl)[C@H]2O[C@@H](SC)[C@@H](O)[C@@H](O)[C@H]2O)[NH+](C)C1</t>
+          <t>N#Cc1ccc(NCC(F)(F)c2ccccn2)[n+]([O-])c1C[C@H](O)NCc1ccccc1C[NH3+]</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -6951,25 +6899,25 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>411.97</v>
+        <v>455.49</v>
       </c>
       <c r="H95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I95" t="n">
         <v>6</v>
       </c>
       <c r="J95" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M95" t="n">
-        <v>103.46</v>
+        <v>135.55</v>
       </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
@@ -6980,7 +6928,7 @@
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FDEE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F959A10&gt;</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
@@ -6992,7 +6940,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>C12504513</t>
+          <t>C65739441</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -7000,12 +6948,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>NC(=[NH2+])c1ccc(O[C@H]2CO[C@H]3[C@@H]2OC[C@H]3Oc2ccc(C(N)=[NH2+])cc2)cc1</t>
+          <t>CC[C@H]1C[C@@H](C(=O)N[C@@H]([C@H]2O[C@@H](SC)[C@@H](O)[C@@H](O)[C@H]2O)[C@@H](C)Cl)[NH+](C)C1</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NC(=[NH2+])c1ccc(O[C@H]2CO[C@@H]3[C@H](Oc4ccc(C(N)=[NH2+])cc4)CO[C@H]23)cc1</t>
+          <t>CC[C@H]1C[C@@H](C(=O)N[C@H]([C@@H](C)Cl)[C@H]2O[C@@H](SC)[C@@H](O)[C@@H](O)[C@H]2O)[NH+](C)C1</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -7019,10 +6967,10 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>384.44</v>
+        <v>411.97</v>
       </c>
       <c r="H96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I96" t="n">
         <v>6</v>
@@ -7031,13 +6979,13 @@
         <v>6</v>
       </c>
       <c r="K96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>140.14</v>
+        <v>103.46</v>
       </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
@@ -7048,7 +6996,7 @@
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F959690&gt;</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
@@ -7060,7 +7008,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>C04477409</t>
+          <t>C12504513</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -7068,12 +7016,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[NH2+]=C1NNC(=[NH2+])C1=NNc1ccc(Cl)c(C(F)(F)F)c1</t>
+          <t>NC(=[NH2+])c1ccc(O[C@H]2CO[C@H]3[C@@H]2OC[C@H]3Oc2ccc(C(N)=[NH2+])cc2)cc1</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[NH2+]=C1NNC(=[NH2+])C1=NNc1ccc(Cl)c(C(F)(F)F)c1</t>
+          <t>NC(=[NH2+])c1ccc(O[C@H]2CO[C@@H]3[C@H](Oc4ccc(C(N)=[NH2+])cc4)CO[C@H]23)cc1</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -7087,25 +7035,25 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>306.68</v>
+        <v>384.44</v>
       </c>
       <c r="H97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I97" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J97" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M97" t="n">
-        <v>99.63</v>
+        <v>140.14</v>
       </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
@@ -7116,7 +7064,7 @@
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE1F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F95A880&gt;</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
@@ -7128,7 +7076,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>C35395455</t>
+          <t>C04477409</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -7136,12 +7084,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>NC(=O)OC[C@H]1[C@H]2[NH+]=C(N)N[C@@]23N(CCC3(O)O)C(=[NH2+])N1O</t>
+          <t>[NH2+]=C1NNC(=[NH2+])C1=NNc1ccc(Cl)c(C(F)(F)F)c1</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NC(=O)OC[C@H]1[C@H]2[NH+]=C(N)N[C@@]23N(CCC3(O)O)C(=[NH2+])N1O</t>
+          <t>[NH2+]=C1NNC(=[NH2+])C1=NNc1ccc(Cl)c(C(F)(F)F)c1</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -7155,25 +7103,25 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>317.31</v>
+        <v>306.68</v>
       </c>
       <c r="H98" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I98" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J98" t="n">
         <v>2</v>
       </c>
       <c r="K98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98" t="n">
-        <v>197.1</v>
+        <v>99.63</v>
       </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -7184,7 +7132,7 @@
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FC2E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F95A810&gt;</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
@@ -7196,7 +7144,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>C44712506</t>
+          <t>C35395455</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -7204,12 +7152,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Nc1nc(N)nc(OCCOc2nc(N)nc(N)n2)n1</t>
+          <t>NC(=O)OC[C@H]1[C@H]2[NH+]=C(N)N[C@@]23N(CCC3(O)O)C(=[NH2+])N1O</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Nc1nc(N)nc(OCCOc2nc(N)nc(N)n2)n1</t>
+          <t>NC(=O)OC[C@H]1[C@H]2[NH+]=C(N)N[C@@]23N(CCC3(O)O)C(=[NH2+])N1O</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -7223,25 +7171,25 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>280.25</v>
+        <v>317.31</v>
       </c>
       <c r="H99" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I99" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>199.88</v>
+        <v>197.1</v>
       </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -7252,7 +7200,7 @@
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FCF20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F95A500&gt;</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
@@ -7264,7 +7212,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>C12290233</t>
+          <t>C44712506</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -7272,12 +7220,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CCOC(=O)C1CC[NH+]([C@@H](c2ccc(F)cc2)c2cc(CC)sc2NC(=O)c2ccccc2)CC1</t>
+          <t>Nc1nc(N)nc(OCCOc2nc(N)nc(N)n2)n1</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>CCOC(=O)C1CC[NH+]([C@@H](c2ccc(F)cc2)c2cc(CC)sc2NC(=O)c2ccccc2)CC1</t>
+          <t>Nc1nc(N)nc(OCCOc2nc(N)nc(N)n2)n1</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -7291,25 +7239,25 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>495.64</v>
+        <v>280.25</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J100" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M100" t="n">
-        <v>59.84</v>
+        <v>199.88</v>
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
@@ -7320,7 +7268,7 @@
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F95A490&gt;</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
@@ -7332,7 +7280,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>C46285566</t>
+          <t>C65799284</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -7340,12 +7288,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Cc1cccc(O[C@H](C)C(=O)NNC(=O)NCc2cc[nH+]c(N(C)C)c2)c1C</t>
+          <t>O=C(NNc1ccc(-n2cccn2)nn1)Nc1ccc(N2CCCC2)[nH+]c1</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Cc1cccc(O[C@H](C)C(=O)NNC(=O)NCc2cc[nH+]c(N(C)C)c2)c1C</t>
+          <t>O=C(NNc1ccc(-n2cccn2)nn1)Nc1ccc(N2CCCC2)[nH+]c1</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -7359,25 +7307,25 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>386.48</v>
+        <v>366.41</v>
       </c>
       <c r="H101" t="n">
         <v>3</v>
       </c>
       <c r="I101" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J101" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M101" t="n">
-        <v>96.84</v>
+        <v>114.14</v>
       </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
@@ -7388,7 +7336,7 @@
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FDA10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F95A340&gt;</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
@@ -7400,7 +7348,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>C31891012</t>
+          <t>C46285566</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -7408,12 +7356,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CCCCn1c(N)c(CN2CC[NH+](C)CC2)c(=O)[nH]c1=O</t>
+          <t>Cc1cccc(O[C@H](C)C(=O)NNC(=O)NCc2cc[nH+]c(N(C)C)c2)c1C</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>CCCCn1c(N)c(CN2CC[NH+](C)CC2)c(=O)[nH]c1=O</t>
+          <t>Cc1cccc(O[C@H](C)C(=O)NNC(=O)NCc2cc[nH+]c(N(C)C)c2)c1C</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -7427,7 +7375,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>296.4</v>
+        <v>386.48</v>
       </c>
       <c r="H102" t="n">
         <v>3</v>
@@ -7436,16 +7384,16 @@
         <v>4</v>
       </c>
       <c r="J102" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K102" t="n">
         <v>2</v>
       </c>
       <c r="L102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M102" t="n">
-        <v>88.56</v>
+        <v>96.84</v>
       </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
@@ -7456,7 +7404,7 @@
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FDB60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F95A260&gt;</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
@@ -7468,7 +7416,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>C04235333</t>
+          <t>C05393058</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -7476,12 +7424,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CN1/C(=C/C=C2CCCC(/C=C/C3=[N+](C)c4ccc([N+](=O)[O-])cc4C3(C)C)=C2Cl)C(C)(C)c2cc([N+](=O)[O-])ccc21</t>
+          <t>O=C1c2ccccc2C(=O)c2c(O)c(NCCC[NH+](CCO)CCO)cc(O)c21</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>CN1/C(=C/C=C2CCCC(/C=C/C3=[N+](C)c4ccc([N+](=O)[O-])cc4C3(C)C)=C2Cl)C(C)(C)c2cc([N+](=O)[O-])ccc21</t>
+          <t>O=C1c2ccccc2C(=O)c2c(O)c(NCCC[NH+](CCO)CCO)cc(O)c21</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -7495,25 +7443,25 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>574.1</v>
+        <v>401.44</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I103" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J103" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K103" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M103" t="n">
-        <v>92.53</v>
+        <v>131.53</v>
       </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
@@ -7524,7 +7472,7 @@
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F95A1F0&gt;</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
@@ -7536,7 +7484,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>C11968398</t>
+          <t>C31891012</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -7544,12 +7492,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>COc1ccc(OC)c2nc(-c3ccc(C)cc3)c(CN(CC[NH+](C)C)C(=O)c3ccc4c(c3)OCO4)cc12</t>
+          <t>CCCCn1c(N)c(CN2CC[NH+](C)CC2)c(=O)[nH]c1=O</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>COc1ccc(OC)c2nc(-c3ccc(C)cc3)c(CN(CC[NH+](C)C)C(=O)c3ccc4c(c3)OCO4)cc12</t>
+          <t>CCCCn1c(N)c(CN2CC[NH+](C)CC2)c(=O)[nH]c1=O</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -7563,25 +7511,25 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>528.63</v>
+        <v>296.4</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I104" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J104" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K104" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L104" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M104" t="n">
-        <v>74.56</v>
+        <v>88.56</v>
       </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
@@ -7592,7 +7540,7 @@
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD8C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F95A110&gt;</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
@@ -7604,7 +7552,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>C19323147</t>
+          <t>C11968398</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -7612,12 +7560,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CC(C)[C@@]12CN3C[C@@](C(C)C)(C[NH+](C1)[C@H]3[C@H](O)[C@H](O)[C@H](O)CO)C2=O</t>
+          <t>COc1ccc(OC)c2nc(-c3ccc(C)cc3)c(CN(CC[NH+](C)C)C(=O)c3ccc4c(c3)OCO4)cc12</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>CC(C)[C@]12CN3C[C@](C(C)C)(C[NH+](C1)[C@H]3[C@H](O)[C@H](O)[C@H](O)CO)C2=O</t>
+          <t>COc1ccc(OC)c2nc(-c3ccc(C)cc3)c(CN(CC[NH+](C)C)C(=O)c3ccc4c(c3)OCO4)cc12</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -7631,25 +7579,25 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>357.47</v>
+        <v>528.63</v>
       </c>
       <c r="H105" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>6</v>
       </c>
       <c r="J105" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K105" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M105" t="n">
-        <v>105.67</v>
+        <v>74.56</v>
       </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
@@ -7660,7 +7608,7 @@
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F95A0A0&gt;</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
@@ -7672,7 +7620,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>C20902860</t>
+          <t>C39710801</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -7680,12 +7628,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>C[C@H]1CCC[C@H](C)[NH+]1CCCN1C(=O)c2cc3ccccc3n2C[C@@]1(C)C(=O)NC1CCCCC1</t>
+          <t>COCCn1nnnc1[C@H]([C@@H]1C=c2cccc(C)c2=[NH+]C1=O)N1CCN(c2cccc(C(F)(F)F)c2)CC1</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>C[C@H]1CCC[C@H](C)[NH+]1CCCN1C(=O)c2cc3ccccc3n2C[C@@]1(C)C(=O)NC1CCCCC1</t>
+          <t>COCCn1nnnc1[C@H]([C@@H]1C=c2cccc(C)c2=[NH+]C1=O)N1CCN(c2cccc(C(F)(F)F)c2)CC1</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -7699,25 +7647,25 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>479.69</v>
+        <v>528.5599999999999</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J106" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K106" t="n">
         <v>5</v>
       </c>
       <c r="L106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M106" t="n">
-        <v>58.78</v>
+        <v>90.34999999999999</v>
       </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
@@ -7728,7 +7676,7 @@
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F95A030&gt;</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
@@ -7740,7 +7688,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>C19890432</t>
+          <t>C19323147</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -7748,12 +7696,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>C[NH+]1CCc2c(sc(/[NH+]=C/c3cc(Br)cc(Cl)c3[O-])c2C(=O)OC(C)(C)C)C1</t>
+          <t>CC(C)[C@@]12CN3C[C@@](C(C)C)(C[NH+](C1)[C@H]3[C@H](O)[C@H](O)[C@H](O)CO)C2=O</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>C[NH+]1CCc2c(sc(/[NH+]=C/c3cc(Br)cc(Cl)c3[O-])c2C(=O)OC(C)(C)C)C1</t>
+          <t>CC(C)[C@]12CN3C[C@](C(C)C)(C[NH+](C1)[C@H]3[C@H](O)[C@H](O)[C@H](O)CO)C2=O</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -7767,25 +7715,25 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>486.84</v>
+        <v>357.47</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J107" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K107" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>67.77</v>
+        <v>105.67</v>
       </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
@@ -7796,7 +7744,7 @@
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F959FC0&gt;</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
@@ -7808,7 +7756,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>C12559528</t>
+          <t>C20902860</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -7816,12 +7764,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>C=CCn1c(-c2ccc(Cl)cc2)cs/c1=[NH+]/c1ccc(S(=O)(=O)Nc2nc(C)cc(C)n2)cc1</t>
+          <t>C[C@H]1CCC[C@H](C)[NH+]1CCCN1C(=O)c2cc3ccccc3n2C[C@@]1(C)C(=O)NC1CCCCC1</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>C=CCn1c(-c2ccc(Cl)cc2)cs/c1=[NH+]/c1ccc(S(=O)(=O)Nc2nc(C)cc(C)n2)cc1</t>
+          <t>C[C@H]1CCC[C@H](C)[NH+]1CCCN1C(=O)c2cc3ccccc3n2C[C@@]1(C)C(=O)NC1CCCCC1</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -7835,25 +7783,25 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>513.0700000000001</v>
+        <v>479.69</v>
       </c>
       <c r="H108" t="n">
         <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L108" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M108" t="n">
-        <v>90.84999999999999</v>
+        <v>58.78</v>
       </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
@@ -7864,7 +7812,7 @@
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F959F50&gt;</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
@@ -7876,7 +7824,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>C36869535</t>
+          <t>C19890432</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -7884,12 +7832,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CN(c1c(N)c[nH+]c2ccc(Br)cc12)[C@H]1CCS(=O)(=O)C1</t>
+          <t>C[NH+]1CCc2c(sc(/[NH+]=C/c3cc(Br)cc(Cl)c3[O-])c2C(=O)OC(C)(C)C)C1</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>CN(c1c(N)c[nH+]c2ccc(Br)cc12)[C@H]1CCS(=O)(=O)C1</t>
+          <t>C[NH+]1CCc2c(sc(/[NH+]=C/c3cc(Br)cc(Cl)c3[O-])c2C(=O)OC(C)(C)C)C1</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -7899,20 +7847,20 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>371.28</v>
+        <v>486.84</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K109" t="n">
         <v>3</v>
@@ -7921,7 +7869,7 @@
         <v>2</v>
       </c>
       <c r="M109" t="n">
-        <v>77.54000000000001</v>
+        <v>67.77</v>
       </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
@@ -7932,7 +7880,7 @@
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F959E70&gt;</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
@@ -7944,7 +7892,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>C39467324</t>
+          <t>C12559528</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -7952,12 +7900,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>O=[P@@]1(c2ccccc2O)N[NH+]2C[C@@H]3C=C(Br)C(O)=C[C@@H]3C[C@@H]2CO1</t>
+          <t>C=CCn1c(-c2ccc(Cl)cc2)cs/c1=[NH+]/c1ccc(S(=O)(=O)Nc2nc(C)cc(C)n2)cc1</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>O=[P@@]1(c2ccccc2O)N[NH+]2C[C@@H]3C=C(Br)C(O)=C[C@@H]3C[C@@H]2CO1</t>
+          <t>C=CCn1c(-c2ccc(Cl)cc2)cs/c1=[NH+]/c1ccc(S(=O)(=O)Nc2nc(C)cc(C)n2)cc1</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -7967,29 +7915,29 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>414.22</v>
+        <v>513.0700000000001</v>
       </c>
       <c r="H110" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K110" t="n">
         <v>4</v>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M110" t="n">
-        <v>83.23</v>
+        <v>90.84999999999999</v>
       </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
@@ -8000,7 +7948,7 @@
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F959D90&gt;</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
@@ -8012,7 +7960,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>C42399444</t>
+          <t>C36869535</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -8020,12 +7968,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>C[NH+](Cc1cc(Br)cs1)Cc1ccccc1/C(N)=N/O</t>
+          <t>CN(c1c(N)c[nH+]c2ccc(Br)cc12)[C@H]1CCS(=O)(=O)C1</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>C[NH+](Cc1cc(Br)cs1)Cc1ccccc1/C(N)=N/O</t>
+          <t>CN(c1c(N)c[nH+]c2ccc(Br)cc12)[C@H]1CCS(=O)(=O)C1</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -8039,25 +7987,25 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>355.28</v>
+        <v>371.28</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J111" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L111" t="n">
         <v>2</v>
       </c>
       <c r="M111" t="n">
-        <v>63.05</v>
+        <v>77.54000000000001</v>
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
@@ -8068,7 +8016,7 @@
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FEA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F959D20&gt;</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
@@ -8080,7 +8028,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>C40862215</t>
+          <t>C39467324</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -8088,12 +8036,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>C[C@H](CNS(=O)(=O)N1CC[NH2+]CC1)C[NH+]1CCCCC1</t>
+          <t>O=[P@@]1(c2ccccc2O)N[NH+]2C[C@@H]3C=C(Br)C(O)=C[C@@H]3C[C@@H]2CO1</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>C[C@H](CNS(=O)(=O)N1CC[NH2+]CC1)C[NH+]1CCCCC1</t>
+          <t>O=[P@@]1(c2ccccc2O)N[NH+]2C[C@@H]3C=C(Br)C(O)=C[C@@H]3C[C@@H]2CO1</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -8107,25 +8055,25 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>306.48</v>
+        <v>414.22</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I112" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J112" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112" t="n">
-        <v>70.45999999999999</v>
+        <v>83.23</v>
       </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
@@ -8136,7 +8084,7 @@
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FEAB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F959770&gt;</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
@@ -8148,7 +8096,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>C37969113</t>
+          <t>C39977012</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -8156,12 +8104,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>NC(=O)[C@H]([NH2+]C1CCCC1)c1cc(Cl)cc(Cl)c1</t>
+          <t>O=S(=O)(/N=C1\N=c2ccccc2=[NH+][C@@H]1Nc1ccc(Cl)c(Cl)c1)c1cccc2nsnc12</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NC(=O)[C@H]([NH2+]C1CCCC1)c1cc(Cl)cc(Cl)c1</t>
+          <t>O=S(=O)(/N=C1\N=c2ccccc2=[NH+][C@@H]1Nc1ccc(Cl)c(Cl)c1)c1cccc2nsnc12</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -8175,25 +8123,25 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>288.2</v>
+        <v>504.4</v>
       </c>
       <c r="H113" t="n">
         <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J113" t="n">
         <v>4</v>
       </c>
       <c r="K113" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L113" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M113" t="n">
-        <v>59.7</v>
+        <v>110.64</v>
       </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
@@ -8204,7 +8152,7 @@
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FEB20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F959620&gt;</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
@@ -8216,7 +8164,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>C61711395</t>
+          <t>C19278135</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -8224,12 +8172,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>N[C@@H]1CCCCC[C@H]1[NH+]1CC[C@H](O)C1</t>
+          <t>Cc1ccc([C@@H]([NH3+])CN2C(=O)NC3(CCCC3)C2=O)cc1</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>N[C@@H]1CCCCC[C@H]1[NH+]1CC[C@H](O)C1</t>
+          <t>Cc1ccc([C@@H]([NH3+])CN2C(=O)NC3(CCCC3)C2=O)cc1</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -8243,25 +8191,25 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>199.32</v>
+        <v>288.37</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
         <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M114" t="n">
-        <v>50.69</v>
+        <v>77.05</v>
       </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
@@ -8272,7 +8220,7 @@
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FCF90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F959A80&gt;</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
@@ -8284,7 +8232,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>C43401365</t>
+          <t>C04959822</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -8292,12 +8240,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Cc1cnn(-c2nc(C)ccc2C(N)=[NH2+])c1</t>
+          <t>Cc1ccc(/N=N\c2cc(C)ccc2N[C@@H]2O[C@@H](C)[C@@H](O)[C@@H](O)[C@H]2O)cc1</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Cc1cnn(-c2nc(C)ccc2C(N)=[NH2+])c1</t>
+          <t>Cc1ccc(/N=N\c2cc(C)ccc2N[C@@H]2O[C@@H](C)[C@@H](O)[C@@H](O)[C@H]2O)cc1</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -8311,25 +8259,25 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>216.27</v>
+        <v>371.44</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I115" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J115" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L115" t="n">
         <v>2</v>
       </c>
       <c r="M115" t="n">
-        <v>82.31999999999999</v>
+        <v>106.67</v>
       </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
@@ -8340,7 +8288,7 @@
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F9599A0&gt;</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
@@ -8352,7 +8300,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>C63513822</t>
+          <t>C40862215</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -8360,12 +8308,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>COc1ccc2c(c1)=C(CCNS(=O)(=O)c1c(C)[nH]c(=O)[nH]c1=O)[C@@H](C)[NH+]=2</t>
+          <t>C[C@H](CNS(=O)(=O)N1CC[NH2+]CC1)C[NH+]1CCCCC1</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>COc1ccc2c(c1)=C(CCNS(=O)(=O)c1c(C)[nH]c(=O)[nH]c1=O)[C@@H](C)[NH+]=2</t>
+          <t>C[C@H](CNS(=O)(=O)N1CC[NH2+]CC1)C[NH+]1CCCCC1</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -8379,25 +8327,25 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>393.45</v>
+        <v>306.48</v>
       </c>
       <c r="H116" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I116" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J116" t="n">
         <v>6</v>
       </c>
       <c r="K116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M116" t="n">
-        <v>135.09</v>
+        <v>70.45999999999999</v>
       </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
@@ -8408,7 +8356,7 @@
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD2A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F959700&gt;</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
@@ -8420,7 +8368,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CHEMBL3732044</t>
+          <t>C40561838</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -8428,12 +8376,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>NCCN1C(=O)S/C(=C\CCC2CCCCC2)C1=O</t>
+          <t>CCc1ccc2oc3c(c(=O)c2c1)[C@H](c1cccc(OCc2ccc(Cl)cc2)c1)N(CCC[NH+](C)C)C3=O</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>NCCN1C(=O)S/C(=C\CCC2CCCCC2)C1=O</t>
+          <t>CCc1ccc2oc3c(c(=O)c2c1)[C@H](c1cccc(OCc2ccc(Cl)cc2)c1)N(CCC[NH+](C)C)C3=O</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -8443,11 +8391,11 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>282.41</v>
+        <v>532.0599999999999</v>
       </c>
       <c r="H117" t="n">
         <v>1</v>
@@ -8456,53 +8404,27 @@
         <v>4</v>
       </c>
       <c r="J117" t="n">
+        <v>9</v>
+      </c>
+      <c r="K117" t="n">
         <v>5</v>
       </c>
-      <c r="K117" t="n">
-        <v>2</v>
-      </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M117" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q117" t="n">
-        <v>8</v>
-      </c>
-      <c r="R117" t="inlineStr">
-        <is>
-          <t>CHEMBL3734458</t>
-        </is>
-      </c>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human AKT2 using fluorescein-labeled peptide as substrate by fluorescence-electrophoretic mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>64.19</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FCE40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F959930&gt;</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
@@ -8514,7 +8436,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CHEMBL2420923</t>
+          <t>C60379926</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -8522,12 +8444,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>O=S(=O)(c1cccc2cnccc12)N1CCCC12CCNCC2</t>
+          <t>OC1CCC(Nc2nc(NC3CCC(O)CC3)c3ccccc3[nH+]2)CC1</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>O=S(=O)(c1cccc2cnccc12)N1CCCC12CCNCC2</t>
+          <t>OC1CCC(Nc2nc(NC3CCC(O)CC3)c3ccccc3[nH+]2)CC1</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -8537,20 +8459,20 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>331.44</v>
+        <v>357.48</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I118" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J118" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K118" t="n">
         <v>4</v>
@@ -8559,44 +8481,18 @@
         <v>2</v>
       </c>
       <c r="M118" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P118" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q118" t="n">
-        <v>13</v>
-      </c>
-      <c r="R118" t="inlineStr">
-        <is>
-          <t>CHEMBL2424336</t>
-        </is>
-      </c>
-      <c r="S118" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT2 (unknown origin) at 30 uM by microfluidic mobility shift assay relative to control</t>
-        </is>
-      </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>91.55</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FD0E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F9598C0&gt;</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
@@ -8608,7 +8504,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CHEMBL48082</t>
+          <t>C31773411</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -8616,12 +8512,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Nc1nccc(-c2c[nH]c3ccccc23)n1</t>
+          <t>CC(C)SCc1cc(=O)[nH]c(=S)[nH]1</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Nc1nccc(-c2c[nH]c3ccccc23)n1</t>
+          <t>CC(C)SCc1cc(=O)[nH]c(=S)[nH]1</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -8631,11 +8527,11 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>210.24</v>
+        <v>216.33</v>
       </c>
       <c r="H119" t="n">
         <v>2</v>
@@ -8644,53 +8540,27 @@
         <v>3</v>
       </c>
       <c r="J119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M119" t="n">
-        <v>67.59</v>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O119" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P119" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q119" t="n">
-        <v>0</v>
-      </c>
-      <c r="R119" t="inlineStr">
-        <is>
-          <t>CHEMBL3599520</t>
-        </is>
-      </c>
-      <c r="S119" t="inlineStr">
-        <is>
-          <t>Inhibition of PKBbeta (unknown origin) at 0.5 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T119" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>48.65</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FDBD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F959850&gt;</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
@@ -8702,7 +8572,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CHEMBL1241578</t>
+          <t>C44539164</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -8710,12 +8580,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CC(C)n1nc(-c2ccc(Br)c(O)c2)c2c(N)ncnc21</t>
+          <t>C[NH+]1CCC[C@H](CNc2nc3c(cc2C(N)=S)CCC3)C1</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>CC(C)n1nc(-c2ccc(Br)c(O)c2)c2c(N)ncnc21</t>
+          <t>C[NH+]1CCC[C@H](CNc2nc3c(cc2C(N)=S)CCC3)C1</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -8725,66 +8595,40 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>348.2</v>
+        <v>305.47</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J120" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K120" t="n">
         <v>3</v>
       </c>
       <c r="L120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M120" t="n">
-        <v>89.84999999999999</v>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P120" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q120" t="n">
-        <v>1</v>
-      </c>
-      <c r="R120" t="inlineStr">
-        <is>
-          <t>CHEMBL1243989</t>
-        </is>
-      </c>
-      <c r="S120" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT2 at 1 uM after 60 mins by FRET assay in presence of 10 uM ATP</t>
-        </is>
-      </c>
-      <c r="T120" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>55.38</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE3B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F9597E0&gt;</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
@@ -8796,7 +8640,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CHEMBL1077739</t>
+          <t>C37969113</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -8804,12 +8648,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccccc1Cl)c1cnc2ccc(C3CCNCC3)cn12</t>
+          <t>NC(=O)[C@H]([NH2+]C1CCCC1)c1cc(Cl)cc(Cl)c1</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccccc1Cl)c1cnc2ccc(C3CCNCC3)cn12</t>
+          <t>NC(=O)[C@H]([NH2+]C1CCCC1)c1cc(Cl)cc(Cl)c1</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -8819,66 +8663,40 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>354.84</v>
+        <v>288.2</v>
       </c>
       <c r="H121" t="n">
         <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K121" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M121" t="n">
-        <v>58.43</v>
-      </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P121" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q121" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R121" t="inlineStr">
-        <is>
-          <t>CHEMBL1111287</t>
-        </is>
-      </c>
-      <c r="S121" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT2 at 5 uM</t>
-        </is>
-      </c>
-      <c r="T121" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>59.7</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
       <c r="U121" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F959AF0&gt;</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
@@ -8890,7 +8708,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CHEMBL185962</t>
+          <t>C61711395</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -8898,12 +8716,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Nc1nonc1-c1nc2cnccc2n1C1CC1</t>
+          <t>N[C@@H]1CCCCC[C@H]1[NH+]1CC[C@H](O)C1</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Nc1nonc1-c1nc2cnccc2n1C1CC1</t>
+          <t>N[C@@H]1CCCCC[C@H]1[NH+]1CC[C@H](O)C1</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -8913,66 +8731,40 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>242.24</v>
+        <v>199.32</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I122" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K122" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>95.65000000000001</v>
-      </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q122" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R122" t="inlineStr">
-        <is>
-          <t>CHEMBL1961877</t>
-        </is>
-      </c>
-      <c r="S122" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T122" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>50.69</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr"/>
       <c r="U122" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F9595B0&gt;</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
@@ -8984,7 +8776,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CHEMBL1880739</t>
+          <t>C43401365</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -8992,12 +8784,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>O=C1Nc2ccc(I)cc2C1=Cc1cc(Br)c(O)c(Br)c1</t>
+          <t>Cc1cnn(-c2nc(C)ccc2C(N)=[NH2+])c1</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>O=C1Nc2ccc(I)cc2C1=Cc1cc(Br)c(O)c(Br)c1</t>
+          <t>Cc1cnn(-c2nc(C)ccc2C(N)=[NH2+])c1</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -9007,66 +8799,40 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>520.95</v>
+        <v>216.27</v>
       </c>
       <c r="H123" t="n">
         <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L123" t="n">
         <v>2</v>
       </c>
       <c r="M123" t="n">
-        <v>49.33</v>
-      </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q123" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R123" t="inlineStr">
-        <is>
-          <t>CHEMBL1961877</t>
-        </is>
-      </c>
-      <c r="S123" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T123" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>82.31999999999999</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FDC40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F95A3B0&gt;</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
@@ -9078,7 +8844,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>CHEMBL1909351</t>
+          <t>C63513822</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -9086,12 +8852,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>NS(=O)(=O)c1cccc(Nc2cc(-c3ccc(F)cc3)n[nH]2)c1</t>
+          <t>COc1ccc2c(c1)=C(CCNS(=O)(=O)c1c(C)[nH]c(=O)[nH]c1=O)[C@@H](C)[NH+]=2</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>NS(=O)(=O)c1cccc(Nc2cc(-c3ccc(F)cc3)n[nH]2)c1</t>
+          <t>COc1ccc2c(c1)=C(CCNS(=O)(=O)c1c(C)[nH]c(=O)[nH]c1=O)[C@@H](C)[NH+]=2</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -9101,66 +8867,40 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>332.36</v>
+        <v>393.45</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I124" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J124" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K124" t="n">
         <v>3</v>
       </c>
       <c r="L124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M124" t="n">
-        <v>100.87</v>
-      </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P124" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q124" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="R124" t="inlineStr">
-        <is>
-          <t>CHEMBL1961877</t>
-        </is>
-      </c>
-      <c r="S124" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T124" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>135.09</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FDE70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F93A490&gt;</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
@@ -9172,7 +8912,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CHEMBL318728</t>
+          <t>C63174692</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -9180,12 +8920,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>c1ccc(Nc2ncc(-c3ccccc3)o2)cc1</t>
+          <t>[NH3+][C@@H]1CCC[C@H]1NS(=O)(=O)c1ccc(F)cc1[N+](=O)[O-]</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>c1ccc(Nc2ncc(-c3ccccc3)o2)cc1</t>
+          <t>[NH3+][C@@H]1CCC[C@H]1NS(=O)(=O)c1ccc(F)cc1[N+](=O)[O-]</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -9195,66 +8935,40 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>236.27</v>
+        <v>304.32</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J125" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L125" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M125" t="n">
-        <v>38.06</v>
-      </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P125" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q125" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R125" t="inlineStr">
-        <is>
-          <t>CHEMBL1961876</t>
-        </is>
-      </c>
-      <c r="S125" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T125" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>116.95</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37F93A570&gt;</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
@@ -9266,7 +8980,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>CHEMBL505187</t>
+          <t>C26421692</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -9274,12 +8988,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>CCn1cc(-c2ccnc3[nH]ccc23)c(-c2cccc(NC(=O)Nc3ccc(OCc4ccccc4)cc3)c2)n1</t>
+          <t>[NH3+]CCn1ncc2c(=O)n(Cc3ccc(Br)cc3)cnc21</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>CCn1cc(-c2ccnc3[nH]ccc23)c(-c2cccc(NC(=O)Nc3ccc(OCc4ccccc4)cc3)c2)n1</t>
+          <t>[NH3+]CCn1ncc2c(=O)n(Cc3ccc(Br)cc3)cnc21</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -9289,66 +9003,40 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>528.62</v>
+        <v>349.21</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J126" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K126" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L126" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M126" t="n">
-        <v>96.86</v>
-      </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q126" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R126" t="inlineStr">
-        <is>
-          <t>CHEMBL1961876</t>
-        </is>
-      </c>
-      <c r="S126" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T126" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>80.34999999999999</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001AA4D3FE420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A37FAD55B0&gt;</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
